--- a/python/Codice_Progetto/Template_Euramet_Excel/04. YYMMDD - Rapporto Taratura UUT v9.xlsx
+++ b/python/Codice_Progetto/Template_Euramet_Excel/04. YYMMDD - Rapporto Taratura UUT v9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce1abc7067b19566/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code_GIT\tesi_triennale_Git\python\Codice_Progetto\Template_Euramet_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{CC80AC6E-E516-4D46-9F06-510F5E9AB28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC58C190-3173-49C0-A81D-8A2AB60344F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665F8AB9-804E-4B32-AE42-6A187D8A449A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Euramet" sheetId="6" r:id="rId1"/>
@@ -6678,6 +6678,27 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="88" fillId="22" borderId="136" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="25" borderId="150" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6693,27 +6714,6 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="22" borderId="136" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="25" borderId="150" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="95" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6729,57 +6729,57 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="19" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="19" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="7" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="72" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="7" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="62" fillId="7" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="19" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="19" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="72" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="91" fillId="33" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6795,6 +6795,57 @@
     <xf numFmtId="0" fontId="69" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="7" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6818,57 +6869,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="7" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="8" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="8" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -7557,8 +7557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365FD7DD-7E66-40B6-B7B0-0EA5643AC1E9}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -7632,18 +7632,18 @@
       <c r="D4" s="327" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="327">
+      <c r="E4" s="327" t="e">
         <f>AVERAGE(E7,E9,E25,E11,E13,E19)</f>
-        <v>989</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="327" customFormat="1">
       <c r="D5" s="327" t="s">
         <v>238</v>
       </c>
-      <c r="E5" s="327">
+      <c r="E5" s="327" t="e">
         <f>AVERAGE(H7,H9,H25,H11,H13,H19)</f>
-        <v>2.4221499999999998</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="327" customFormat="1" ht="15" thickBot="1">
@@ -7713,48 +7713,38 @@
         <f>SetPnt_N_0</f>
         <v>0</v>
       </c>
-      <c r="D7" s="418">
-        <v>837</v>
-      </c>
-      <c r="E7" s="419">
-        <v>989</v>
-      </c>
-      <c r="F7" s="419">
-        <v>-0.3</v>
-      </c>
-      <c r="G7" s="419">
-        <v>-2.4</v>
-      </c>
-      <c r="H7" s="420">
-        <v>2.4221499999999998</v>
-      </c>
-      <c r="I7" s="364">
+      <c r="D7" s="418"/>
+      <c r="E7" s="419"/>
+      <c r="F7" s="419"/>
+      <c r="G7" s="419"/>
+      <c r="H7" s="420"/>
+      <c r="I7" s="364" t="e">
         <f t="shared" ref="I7:I25" si="0">(H7-$E$5)+$H$2</f>
-        <v>2.5</v>
-      </c>
-      <c r="J7" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="369" t="e">
         <f t="shared" ref="J7:J25" si="1">(I7-$H$2)*$H$3</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K7" s="334">
         <f t="shared" ref="K7:K25" si="2">COS(ASIN((E7-D7)/800))</f>
-        <v>0.98178409031721425</v>
+        <v>1</v>
       </c>
       <c r="L7" s="370">
         <f>-F7*K7</f>
-        <v>0.29453522709516428</v>
-      </c>
-      <c r="M7" s="334">
+        <v>0</v>
+      </c>
+      <c r="M7" s="334" t="e">
         <f t="shared" ref="M7:M25" si="3">L7*$D$54+$E$54</f>
-        <v>2.4221499999999998</v>
-      </c>
-      <c r="N7" s="334">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="334" t="e">
         <f t="shared" ref="N7:N25" si="4">H7-M7</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="335">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" s="335" t="e">
         <f t="shared" ref="O7:O25" si="5">N7/4</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P7" s="334" t="e">
         <f t="shared" ref="P7:P25" si="6">L7*$J$49+$E$54</f>
@@ -7780,48 +7770,38 @@
         <f>C_Tar_min</f>
         <v>-1000</v>
       </c>
-      <c r="D8" s="421">
-        <v>837</v>
-      </c>
-      <c r="E8" s="339">
-        <v>883</v>
-      </c>
-      <c r="F8" s="339">
-        <v>257</v>
-      </c>
-      <c r="G8" s="339">
-        <v>-253.9</v>
-      </c>
-      <c r="H8" s="422">
-        <v>1.90669</v>
-      </c>
-      <c r="I8" s="365">
+      <c r="D8" s="421"/>
+      <c r="E8" s="339"/>
+      <c r="F8" s="339"/>
+      <c r="G8" s="339"/>
+      <c r="H8" s="422"/>
+      <c r="I8" s="365" t="e">
         <f t="shared" si="0"/>
-        <v>1.9845400000000002</v>
-      </c>
-      <c r="J8" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-128.86499999999995</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K8" s="340">
         <f t="shared" si="2"/>
-        <v>0.99834550632534025</v>
+        <v>1</v>
       </c>
       <c r="L8" s="370">
         <f t="shared" ref="L8:L25" si="9">-F8*K8</f>
-        <v>-256.57479512561247</v>
-      </c>
-      <c r="M8" s="327">
+        <v>0</v>
+      </c>
+      <c r="M8" s="327" t="e">
         <f t="shared" si="3"/>
-        <v>1.9066900000000002</v>
-      </c>
-      <c r="N8" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" s="327" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="341">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="341" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P8" s="327" t="e">
         <f t="shared" si="6"/>
@@ -7852,13 +7832,13 @@
       <c r="F9" s="339"/>
       <c r="G9" s="339"/>
       <c r="H9" s="422"/>
-      <c r="I9" s="365">
+      <c r="I9" s="365" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J9" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K9" s="340">
         <f t="shared" si="2"/>
@@ -7868,17 +7848,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M9" s="327">
+      <c r="M9" s="327" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N9" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" s="327" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O9" s="341">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="341" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P9" s="327" t="e">
         <f t="shared" si="6"/>
@@ -7909,13 +7889,13 @@
       <c r="F10" s="339"/>
       <c r="G10" s="339"/>
       <c r="H10" s="422"/>
-      <c r="I10" s="365">
+      <c r="I10" s="365" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J10" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K10" s="340">
         <f t="shared" si="2"/>
@@ -7925,17 +7905,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M10" s="327">
+      <c r="M10" s="327" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N10" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" s="327" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O10" s="341">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="341" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P10" s="327" t="e">
         <f t="shared" si="6"/>
@@ -7966,13 +7946,13 @@
       <c r="F11" s="339"/>
       <c r="G11" s="339"/>
       <c r="H11" s="422"/>
-      <c r="I11" s="365">
+      <c r="I11" s="365" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J11" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K11" s="340">
         <f t="shared" si="2"/>
@@ -7982,17 +7962,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M11" s="327">
+      <c r="M11" s="327" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N11" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" s="327" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O11" s="341">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" s="341" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P11" s="327" t="e">
         <f t="shared" si="6"/>
@@ -8023,13 +8003,13 @@
       <c r="F12" s="339"/>
       <c r="G12" s="339"/>
       <c r="H12" s="422"/>
-      <c r="I12" s="365">
+      <c r="I12" s="365" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J12" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K12" s="340">
         <f t="shared" si="2"/>
@@ -8039,17 +8019,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M12" s="327">
+      <c r="M12" s="327" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N12" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" s="327" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O12" s="341">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="341" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P12" s="327" t="e">
         <f t="shared" si="6"/>
@@ -8080,13 +8060,13 @@
       <c r="F13" s="343"/>
       <c r="G13" s="343"/>
       <c r="H13" s="424"/>
-      <c r="I13" s="364">
+      <c r="I13" s="364" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J13" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K13" s="334">
         <f t="shared" si="2"/>
@@ -8096,17 +8076,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M13" s="334">
+      <c r="M13" s="334" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N13" s="334">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" s="334" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O13" s="335">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="335" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P13" s="334" t="e">
         <f t="shared" si="6"/>
@@ -8137,13 +8117,13 @@
       <c r="F14" s="344"/>
       <c r="G14" s="344"/>
       <c r="H14" s="426"/>
-      <c r="I14" s="365">
+      <c r="I14" s="365" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J14" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K14" s="340">
         <f t="shared" si="2"/>
@@ -8153,17 +8133,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M14" s="327">
+      <c r="M14" s="327" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N14" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="327" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O14" s="341">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="341" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P14" s="327" t="e">
         <f t="shared" si="6"/>
@@ -8194,13 +8174,13 @@
       <c r="F15" s="344"/>
       <c r="G15" s="344"/>
       <c r="H15" s="426"/>
-      <c r="I15" s="365">
+      <c r="I15" s="365" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J15" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K15" s="340">
         <f t="shared" si="2"/>
@@ -8210,17 +8190,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M15" s="327">
+      <c r="M15" s="327" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N15" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="327" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O15" s="341">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="341" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P15" s="327" t="e">
         <f t="shared" si="6"/>
@@ -8251,13 +8231,13 @@
       <c r="F16" s="344"/>
       <c r="G16" s="344"/>
       <c r="H16" s="426"/>
-      <c r="I16" s="365">
+      <c r="I16" s="365" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J16" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K16" s="340">
         <f t="shared" si="2"/>
@@ -8267,17 +8247,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M16" s="327">
+      <c r="M16" s="327" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N16" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="327" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O16" s="341">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="341" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P16" s="327" t="e">
         <f t="shared" si="6"/>
@@ -8308,13 +8288,13 @@
       <c r="F17" s="344"/>
       <c r="G17" s="344"/>
       <c r="H17" s="426"/>
-      <c r="I17" s="365">
+      <c r="I17" s="365" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J17" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K17" s="340">
         <f t="shared" si="2"/>
@@ -8324,17 +8304,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M17" s="327">
+      <c r="M17" s="327" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N17" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="327" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O17" s="341">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="341" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P17" s="327" t="e">
         <f t="shared" si="6"/>
@@ -8365,13 +8345,13 @@
       <c r="F18" s="344"/>
       <c r="G18" s="344"/>
       <c r="H18" s="426"/>
-      <c r="I18" s="365">
+      <c r="I18" s="365" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J18" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K18" s="340">
         <f t="shared" si="2"/>
@@ -8381,17 +8361,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M18" s="327">
+      <c r="M18" s="327" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N18" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="327" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O18" s="341">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="341" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P18" s="327" t="e">
         <f t="shared" si="6"/>
@@ -8422,13 +8402,13 @@
       <c r="F19" s="343"/>
       <c r="G19" s="343"/>
       <c r="H19" s="424"/>
-      <c r="I19" s="364">
+      <c r="I19" s="364" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J19" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K19" s="334">
         <f t="shared" si="2"/>
@@ -8438,17 +8418,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M19" s="334">
+      <c r="M19" s="334" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N19" s="334">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="334" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O19" s="335">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="335" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P19" s="334" t="e">
         <f t="shared" si="6"/>
@@ -8479,13 +8459,13 @@
       <c r="F20" s="344"/>
       <c r="G20" s="344"/>
       <c r="H20" s="426"/>
-      <c r="I20" s="365">
+      <c r="I20" s="365" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J20" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K20" s="340">
         <f t="shared" si="2"/>
@@ -8495,17 +8475,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M20" s="327">
+      <c r="M20" s="327" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N20" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="327" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O20" s="341">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="341" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P20" s="327" t="e">
         <f t="shared" si="6"/>
@@ -8536,13 +8516,13 @@
       <c r="F21" s="344"/>
       <c r="G21" s="344"/>
       <c r="H21" s="426"/>
-      <c r="I21" s="365">
+      <c r="I21" s="365" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J21" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K21" s="340">
         <f t="shared" si="2"/>
@@ -8552,17 +8532,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M21" s="327">
+      <c r="M21" s="327" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N21" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="327" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O21" s="341">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" s="341" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P21" s="327" t="e">
         <f t="shared" si="6"/>
@@ -8593,13 +8573,13 @@
       <c r="F22" s="344"/>
       <c r="G22" s="344"/>
       <c r="H22" s="426"/>
-      <c r="I22" s="365">
+      <c r="I22" s="365" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J22" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K22" s="340">
         <f t="shared" si="2"/>
@@ -8609,17 +8589,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M22" s="327">
+      <c r="M22" s="327" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N22" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="327" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O22" s="341">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" s="341" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P22" s="327" t="e">
         <f t="shared" si="6"/>
@@ -8650,13 +8630,13 @@
       <c r="F23" s="344"/>
       <c r="G23" s="344"/>
       <c r="H23" s="426"/>
-      <c r="I23" s="365">
+      <c r="I23" s="365" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J23" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K23" s="340">
         <f t="shared" si="2"/>
@@ -8666,17 +8646,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M23" s="327">
+      <c r="M23" s="327" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N23" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="327" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O23" s="341">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="341" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P23" s="327" t="e">
         <f t="shared" si="6"/>
@@ -8707,13 +8687,13 @@
       <c r="F24" s="348"/>
       <c r="G24" s="348"/>
       <c r="H24" s="428"/>
-      <c r="I24" s="366">
+      <c r="I24" s="366" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J24" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K24" s="347">
         <f t="shared" si="2"/>
@@ -8723,17 +8703,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M24" s="347">
+      <c r="M24" s="347" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N24" s="347">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="347" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O24" s="349">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="349" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P24" s="347" t="e">
         <f t="shared" si="6"/>
@@ -8764,13 +8744,13 @@
       <c r="F25" s="430"/>
       <c r="G25" s="430"/>
       <c r="H25" s="431"/>
-      <c r="I25" s="366">
+      <c r="I25" s="366" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
-      </c>
-      <c r="J25" s="369">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="369" t="e">
         <f t="shared" si="1"/>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K25" s="347">
         <f t="shared" si="2"/>
@@ -8780,17 +8760,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M25" s="347">
+      <c r="M25" s="347" t="e">
         <f t="shared" si="3"/>
-        <v>2.4215589557988491</v>
-      </c>
-      <c r="N25" s="347">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="347" t="e">
         <f t="shared" si="4"/>
-        <v>-2.4215589557988491</v>
-      </c>
-      <c r="O25" s="349">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="349" t="e">
         <f t="shared" si="5"/>
-        <v>-0.60538973894971226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P25" s="347" t="e">
         <f t="shared" si="6"/>
@@ -9984,46 +9964,46 @@
     </row>
     <row r="50" spans="1:18" s="327" customFormat="1" ht="24.6">
       <c r="A50" s="355"/>
-      <c r="B50" s="444" t="s">
+      <c r="B50" s="439" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="444"/>
-      <c r="D50" s="444"/>
-      <c r="E50" s="444"/>
-      <c r="F50" s="444"/>
-      <c r="G50" s="444"/>
-      <c r="H50" s="444"/>
+      <c r="C50" s="439"/>
+      <c r="D50" s="439"/>
+      <c r="E50" s="439"/>
+      <c r="F50" s="439"/>
+      <c r="G50" s="439"/>
+      <c r="H50" s="439"/>
       <c r="I50" s="356"/>
       <c r="J50" s="356"/>
-      <c r="K50" s="445" t="s">
+      <c r="K50" s="440" t="s">
         <v>105</v>
       </c>
-      <c r="L50" s="445"/>
-      <c r="M50" s="445"/>
-      <c r="N50" s="445"/>
-      <c r="O50" s="445"/>
-      <c r="P50" s="445"/>
-      <c r="Q50" s="445"/>
+      <c r="L50" s="440"/>
+      <c r="M50" s="440"/>
+      <c r="N50" s="440"/>
+      <c r="O50" s="440"/>
+      <c r="P50" s="440"/>
+      <c r="Q50" s="440"/>
       <c r="R50" s="357"/>
     </row>
     <row r="51" spans="1:18" s="327" customFormat="1" ht="24.6">
       <c r="A51" s="355"/>
-      <c r="B51" s="444"/>
-      <c r="C51" s="444"/>
-      <c r="D51" s="444"/>
-      <c r="E51" s="444"/>
-      <c r="F51" s="444"/>
-      <c r="G51" s="444"/>
-      <c r="H51" s="444"/>
+      <c r="B51" s="439"/>
+      <c r="C51" s="439"/>
+      <c r="D51" s="439"/>
+      <c r="E51" s="439"/>
+      <c r="F51" s="439"/>
+      <c r="G51" s="439"/>
+      <c r="H51" s="439"/>
       <c r="I51" s="356"/>
       <c r="J51" s="356"/>
-      <c r="K51" s="445"/>
-      <c r="L51" s="445"/>
-      <c r="M51" s="445"/>
-      <c r="N51" s="445"/>
-      <c r="O51" s="445"/>
-      <c r="P51" s="445"/>
-      <c r="Q51" s="445"/>
+      <c r="K51" s="440"/>
+      <c r="L51" s="440"/>
+      <c r="M51" s="440"/>
+      <c r="N51" s="440"/>
+      <c r="O51" s="440"/>
+      <c r="P51" s="440"/>
+      <c r="Q51" s="440"/>
       <c r="R51" s="357"/>
     </row>
     <row r="52" spans="1:18" s="327" customFormat="1" ht="14.4">
@@ -10068,13 +10048,13 @@
       <c r="C54" s="357" t="s">
         <v>202</v>
       </c>
-      <c r="D54" s="433">
+      <c r="D54" s="433" t="e">
         <f>SLOPE(H7:H24,L7:L24)</f>
-        <v>2.0067012254527273E-3</v>
-      </c>
-      <c r="E54" s="357">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E54" s="357" t="e">
         <f>INTERCEPT(H7:H24,L7:L24)</f>
-        <v>2.4215589557988491</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F54" s="357"/>
       <c r="G54" s="357"/>
@@ -10102,13 +10082,13 @@
       <c r="C55" s="357" t="s">
         <v>200</v>
       </c>
-      <c r="D55" s="359">
+      <c r="D55" s="359" t="e">
         <f>SLOPE(L7:L25,H7:H25)</f>
-        <v>498.33028819444326</v>
-      </c>
-      <c r="E55" s="357">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E55" s="357" t="e">
         <f>INTERCEPT(L7:L24,H7:H24)</f>
-        <v>-1206.7361723230754</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F55" s="357"/>
       <c r="G55" s="357"/>
@@ -10169,29 +10149,29 @@
     <row r="58" spans="1:18" s="327" customFormat="1"/>
     <row r="59" spans="1:18" s="327" customFormat="1" ht="13.8" thickBot="1"/>
     <row r="60" spans="1:18" s="327" customFormat="1" ht="15" thickBot="1">
-      <c r="A60" s="446" t="s">
+      <c r="A60" s="441" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="447" t="s">
+      <c r="B60" s="442" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="448" t="s">
+      <c r="C60" s="443" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="448"/>
-      <c r="E60" s="449" t="s">
+      <c r="D60" s="443"/>
+      <c r="E60" s="444" t="s">
         <v>41</v>
       </c>
-      <c r="F60" s="449"/>
-      <c r="G60" s="450" t="s">
+      <c r="F60" s="444"/>
+      <c r="G60" s="445" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="450"/>
+      <c r="H60" s="445"/>
       <c r="I60"/>
     </row>
     <row r="61" spans="1:18" s="327" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A61" s="446"/>
-      <c r="B61" s="447"/>
+      <c r="A61" s="441"/>
+      <c r="B61" s="442"/>
       <c r="C61" s="26">
         <v>0</v>
       </c>
@@ -10216,7 +10196,7 @@
       <c r="I61"/>
     </row>
     <row r="62" spans="1:18" s="327" customFormat="1" ht="15" thickTop="1">
-      <c r="A62" s="446"/>
+      <c r="A62" s="441"/>
       <c r="B62" s="29" t="str">
         <f>CONCATENATE("Coppia REF [",EUnits,"]")</f>
         <v>Coppia REF [Nm]</v>
@@ -10248,7 +10228,7 @@
       <c r="I62"/>
     </row>
     <row r="63" spans="1:18" ht="15" thickBot="1">
-      <c r="A63" s="446"/>
+      <c r="A63" s="441"/>
       <c r="B63" s="30" t="str">
         <f>CONCATENATE("Coppia UUT [",UUT_EUnits,"]")</f>
         <v>Coppia UUT [Nm]</v>
@@ -10280,7 +10260,7 @@
       <c r="I63"/>
     </row>
     <row r="64" spans="1:18" ht="15" thickBot="1">
-      <c r="A64" s="446"/>
+      <c r="A64" s="441"/>
       <c r="B64" s="35"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -10291,7 +10271,7 @@
       <c r="I64"/>
     </row>
     <row r="65" spans="1:9" ht="60" thickBot="1">
-      <c r="A65" s="446"/>
+      <c r="A65" s="441"/>
       <c r="B65" s="36" t="s">
         <v>43</v>
       </c>
@@ -10318,7 +10298,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" thickTop="1">
-      <c r="A66" s="446"/>
+      <c r="A66" s="441"/>
       <c r="B66" s="29" t="str">
         <f>CONCATENATE("Coppia REF [",EUnits,"]")</f>
         <v>Coppia REF [Nm]</v>
@@ -10353,7 +10333,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1">
-      <c r="A67" s="446"/>
+      <c r="A67" s="441"/>
       <c r="B67" s="30" t="str">
         <f>CONCATENATE("Coppia UUT [",UUT_EUnits,"]")</f>
         <v>Coppia UUT [Nm]</v>
@@ -10388,7 +10368,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" thickBot="1">
-      <c r="A68" s="446"/>
+      <c r="A68" s="441"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -10399,7 +10379,7 @@
       <c r="I68"/>
     </row>
     <row r="69" spans="1:9" ht="60" thickBot="1">
-      <c r="A69" s="446"/>
+      <c r="A69" s="441"/>
       <c r="B69" s="40" t="s">
         <v>50</v>
       </c>
@@ -10426,7 +10406,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" thickTop="1">
-      <c r="A70" s="446"/>
+      <c r="A70" s="441"/>
       <c r="B70" s="29" t="str">
         <f>CONCATENATE("Coppia REF [",EUnits,"]")</f>
         <v>Coppia REF [Nm]</v>
@@ -10461,7 +10441,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" thickBot="1">
-      <c r="A71" s="446"/>
+      <c r="A71" s="441"/>
       <c r="B71" s="30" t="str">
         <f>CONCATENATE("Coppia UUT [",UUT_EUnits,"]")</f>
         <v>Coppia UUT [Nm]</v>
@@ -10518,29 +10498,29 @@
       <c r="I73"/>
     </row>
     <row r="74" spans="1:9" ht="15" thickBot="1">
-      <c r="A74" s="439" t="s">
+      <c r="A74" s="446" t="s">
         <v>51</v>
       </c>
-      <c r="B74" s="440" t="s">
+      <c r="B74" s="447" t="s">
         <v>39</v>
       </c>
-      <c r="C74" s="441" t="s">
+      <c r="C74" s="448" t="s">
         <v>40</v>
       </c>
-      <c r="D74" s="441"/>
-      <c r="E74" s="442" t="s">
+      <c r="D74" s="448"/>
+      <c r="E74" s="449" t="s">
         <v>41</v>
       </c>
-      <c r="F74" s="442"/>
-      <c r="G74" s="443" t="s">
+      <c r="F74" s="449"/>
+      <c r="G74" s="450" t="s">
         <v>42</v>
       </c>
-      <c r="H74" s="443"/>
+      <c r="H74" s="450"/>
       <c r="I74"/>
     </row>
     <row r="75" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A75" s="439"/>
-      <c r="B75" s="440"/>
+      <c r="A75" s="446"/>
+      <c r="B75" s="447"/>
       <c r="C75" s="41">
         <v>0</v>
       </c>
@@ -10565,18 +10545,18 @@
       <c r="I75"/>
     </row>
     <row r="76" spans="1:9" ht="15" thickTop="1">
-      <c r="A76" s="439"/>
+      <c r="A76" s="446"/>
       <c r="B76" s="46" t="str">
         <f>CONCATENATE("Coppia REF [",EUnits,"]")</f>
         <v>Coppia REF [Nm]</v>
       </c>
       <c r="C76" s="373">
         <f>L7</f>
-        <v>0.29453522709516428</v>
+        <v>0</v>
       </c>
       <c r="D76" s="373">
         <f>L8</f>
-        <v>-256.57479512561247</v>
+        <v>0</v>
       </c>
       <c r="E76" s="373">
         <f>L9</f>
@@ -10597,39 +10577,39 @@
       <c r="I76"/>
     </row>
     <row r="77" spans="1:9" ht="15" thickBot="1">
-      <c r="A77" s="439"/>
+      <c r="A77" s="446"/>
       <c r="B77" s="47" t="str">
         <f>CONCATENATE("Coppia UUT [",UUT_EUnits,"]")</f>
         <v>Coppia UUT [Nm]</v>
       </c>
-      <c r="C77" s="374">
+      <c r="C77" s="374" t="e">
         <f>J7</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="374">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D77" s="374" t="e">
         <f>J8</f>
-        <v>-128.86499999999995</v>
-      </c>
-      <c r="E77" s="374">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E77" s="374" t="e">
         <f>J9</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="F77" s="379">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F77" s="379" t="e">
         <f>J10</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="G77" s="380">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G77" s="380" t="e">
         <f>J11</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="H77" s="381">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H77" s="381" t="e">
         <f>J12</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I77"/>
     </row>
     <row r="78" spans="1:9" ht="15" thickBot="1">
-      <c r="A78" s="439"/>
+      <c r="A78" s="446"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -10640,7 +10620,7 @@
       <c r="I78"/>
     </row>
     <row r="79" spans="1:9" ht="60" thickBot="1">
-      <c r="A79" s="439"/>
+      <c r="A79" s="446"/>
       <c r="B79" s="48" t="s">
         <v>43</v>
       </c>
@@ -10667,7 +10647,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" thickTop="1">
-      <c r="A80" s="439"/>
+      <c r="A80" s="446"/>
       <c r="B80" s="46" t="str">
         <f>CONCATENATE("Coppia REF [",EUnits,"]")</f>
         <v>Coppia REF [Nm]</v>
@@ -10702,42 +10682,42 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" thickBot="1">
-      <c r="A81" s="439"/>
+      <c r="A81" s="446"/>
       <c r="B81" s="47" t="str">
         <f>CONCATENATE("Coppia UUT [",UUT_EUnits,"]")</f>
         <v>Coppia UUT [Nm]</v>
       </c>
-      <c r="C81" s="374">
+      <c r="C81" s="374" t="e">
         <f>J13</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="D81" s="374">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D81" s="374" t="e">
         <f>J14</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="E81" s="374">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E81" s="374" t="e">
         <f>J15</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="F81" s="379">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F81" s="379" t="e">
         <f>J16</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="G81" s="379">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G81" s="379" t="e">
         <f>J17</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="H81" s="380">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H81" s="380" t="e">
         <f>J18</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="I81" s="381">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I81" s="381" t="e">
         <f>J19</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1">
-      <c r="A82" s="439"/>
+      <c r="A82" s="446"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -10748,7 +10728,7 @@
       <c r="I82"/>
     </row>
     <row r="83" spans="1:9" ht="60" thickBot="1">
-      <c r="A83" s="439"/>
+      <c r="A83" s="446"/>
       <c r="B83" s="48" t="s">
         <v>50</v>
       </c>
@@ -10775,7 +10755,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" thickTop="1">
-      <c r="A84" s="439"/>
+      <c r="A84" s="446"/>
       <c r="B84" s="46" t="str">
         <f>CONCATENATE("Coppia REF [",EUnits,"]")</f>
         <v>Coppia REF [Nm]</v>
@@ -10810,42 +10790,47 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1">
-      <c r="A85" s="439"/>
+      <c r="A85" s="446"/>
       <c r="B85" s="47" t="str">
         <f>CONCATENATE("Coppia UUT [",UUT_EUnits,"]")</f>
         <v>Coppia UUT [Nm]</v>
       </c>
-      <c r="C85" s="374">
+      <c r="C85" s="374" t="e">
         <f>J19</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="D85" s="374">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D85" s="374" t="e">
         <f>J20</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="E85" s="374">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E85" s="374" t="e">
         <f>J21</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="F85" s="379">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F85" s="379" t="e">
         <f>J22</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="G85" s="379">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G85" s="379" t="e">
         <f>J23</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="H85" s="380">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H85" s="380" t="e">
         <f>J24</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="I85" s="381">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I85" s="381" t="e">
         <f>J25</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
     <mergeCell ref="B50:H51"/>
     <mergeCell ref="K50:Q51"/>
     <mergeCell ref="A60:A71"/>
@@ -10853,11 +10838,6 @@
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="E60:F60"/>
     <mergeCell ref="G60:H60"/>
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
   </mergeCells>
   <conditionalFormatting sqref="C62:H63">
     <cfRule type="cellIs" dxfId="23" priority="7" operator="lessThan">
@@ -10922,7 +10902,7 @@
   </sheetPr>
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
@@ -11320,28 +11300,28 @@
       <c r="P29" s="24"/>
     </row>
     <row r="30" spans="1:19" ht="18.75" customHeight="1" outlineLevel="1">
-      <c r="A30" s="446" t="s">
+      <c r="A30" s="441" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="447" t="s">
+      <c r="B30" s="442" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="448" t="s">
+      <c r="C30" s="443" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="448"/>
-      <c r="E30" s="449" t="s">
+      <c r="D30" s="443"/>
+      <c r="E30" s="444" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="449"/>
-      <c r="G30" s="450" t="s">
+      <c r="F30" s="444"/>
+      <c r="G30" s="445" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="450"/>
+      <c r="H30" s="445"/>
     </row>
     <row r="31" spans="1:19" ht="18.75" customHeight="1" outlineLevel="1">
-      <c r="A31" s="446"/>
-      <c r="B31" s="447"/>
+      <c r="A31" s="441"/>
+      <c r="B31" s="442"/>
       <c r="C31" s="26">
         <v>0</v>
       </c>
@@ -11365,7 +11345,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" outlineLevel="1">
-      <c r="A32" s="446"/>
+      <c r="A32" s="441"/>
       <c r="B32" s="29" t="str">
         <f>CONCATENATE("Coppia REF [",EUnits,"]")</f>
         <v>Coppia REF [Nm]</v>
@@ -11396,7 +11376,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" outlineLevel="1">
-      <c r="A33" s="446"/>
+      <c r="A33" s="441"/>
       <c r="B33" s="30" t="str">
         <f>CONCATENATE("Coppia UUT [",UUT_EUnits,"]")</f>
         <v>Coppia UUT [Nm]</v>
@@ -11427,11 +11407,11 @@
       </c>
     </row>
     <row r="34" spans="1:9" outlineLevel="1">
-      <c r="A34" s="446"/>
+      <c r="A34" s="441"/>
       <c r="B34" s="35"/>
     </row>
     <row r="35" spans="1:9" ht="39.75" customHeight="1" outlineLevel="1">
-      <c r="A35" s="446"/>
+      <c r="A35" s="441"/>
       <c r="B35" s="36" t="s">
         <v>43</v>
       </c>
@@ -11458,7 +11438,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" outlineLevel="1">
-      <c r="A36" s="446"/>
+      <c r="A36" s="441"/>
       <c r="B36" s="29" t="str">
         <f>CONCATENATE("Coppia REF [",EUnits,"]")</f>
         <v>Coppia REF [Nm]</v>
@@ -11493,7 +11473,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" outlineLevel="1">
-      <c r="A37" s="446"/>
+      <c r="A37" s="441"/>
       <c r="B37" s="30" t="str">
         <f>CONCATENATE("Coppia UUT [",UUT_EUnits,"]")</f>
         <v>Coppia UUT [Nm]</v>
@@ -11528,10 +11508,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" outlineLevel="1">
-      <c r="A38" s="446"/>
+      <c r="A38" s="441"/>
     </row>
     <row r="39" spans="1:9" ht="39.75" customHeight="1" outlineLevel="1">
-      <c r="A39" s="446"/>
+      <c r="A39" s="441"/>
       <c r="B39" s="40" t="s">
         <v>50</v>
       </c>
@@ -11558,7 +11538,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" outlineLevel="1">
-      <c r="A40" s="446"/>
+      <c r="A40" s="441"/>
       <c r="B40" s="29" t="str">
         <f>CONCATENATE("Coppia REF [",EUnits,"]")</f>
         <v>Coppia REF [Nm]</v>
@@ -11593,7 +11573,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" outlineLevel="1">
-      <c r="A41" s="446"/>
+      <c r="A41" s="441"/>
       <c r="B41" s="30" t="str">
         <f>CONCATENATE("Coppia UUT [",UUT_EUnits,"]")</f>
         <v>Coppia UUT [Nm]</v>
@@ -11630,28 +11610,28 @@
     <row r="42" spans="1:9" outlineLevel="1"/>
     <row r="43" spans="1:9" outlineLevel="1"/>
     <row r="44" spans="1:9" ht="21" customHeight="1" outlineLevel="1">
-      <c r="A44" s="439" t="s">
+      <c r="A44" s="446" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="440" t="s">
+      <c r="B44" s="447" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="441" t="s">
+      <c r="C44" s="448" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="441"/>
-      <c r="E44" s="442" t="s">
+      <c r="D44" s="448"/>
+      <c r="E44" s="449" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="442"/>
-      <c r="G44" s="443" t="s">
+      <c r="F44" s="449"/>
+      <c r="G44" s="450" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="443"/>
+      <c r="H44" s="450"/>
     </row>
     <row r="45" spans="1:9" ht="21" customHeight="1" outlineLevel="1">
-      <c r="A45" s="439"/>
-      <c r="B45" s="440"/>
+      <c r="A45" s="446"/>
+      <c r="B45" s="447"/>
       <c r="C45" s="41">
         <v>0</v>
       </c>
@@ -11675,18 +11655,18 @@
       </c>
     </row>
     <row r="46" spans="1:9" outlineLevel="1">
-      <c r="A46" s="439"/>
+      <c r="A46" s="446"/>
       <c r="B46" s="46" t="str">
         <f>CONCATENATE("Coppia REF [",EUnits,"]")</f>
         <v>Coppia REF [Nm]</v>
       </c>
       <c r="C46" s="373">
         <f>Euramet!C76</f>
-        <v>0.29453522709516428</v>
+        <v>0</v>
       </c>
       <c r="D46" s="373">
         <f>Euramet!D76</f>
-        <v>-256.57479512561247</v>
+        <v>0</v>
       </c>
       <c r="E46" s="373">
         <f>Euramet!E76</f>
@@ -11706,41 +11686,41 @@
       </c>
     </row>
     <row r="47" spans="1:9" outlineLevel="1">
-      <c r="A47" s="439"/>
+      <c r="A47" s="446"/>
       <c r="B47" s="47" t="str">
         <f>CONCATENATE("Coppia UUT [",UUT_EUnits,"]")</f>
         <v>Coppia UUT [Nm]</v>
       </c>
-      <c r="C47" s="373">
+      <c r="C47" s="373" t="e">
         <f>Euramet!C77</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D47" s="373" t="e">
         <f>Euramet!D77</f>
-        <v>-128.86499999999995</v>
-      </c>
-      <c r="E47" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" s="373" t="e">
         <f>Euramet!E77</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="F47" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F47" s="373" t="e">
         <f>Euramet!F77</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="G47" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="373" t="e">
         <f>Euramet!G77</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="H47" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47" s="373" t="e">
         <f>Euramet!H77</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="1:9" outlineLevel="1">
-      <c r="A48" s="439"/>
+      <c r="A48" s="446"/>
     </row>
     <row r="49" spans="1:19" ht="41.4" outlineLevel="1">
-      <c r="A49" s="439"/>
+      <c r="A49" s="446"/>
       <c r="B49" s="48" t="s">
         <v>43</v>
       </c>
@@ -11767,7 +11747,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" outlineLevel="1">
-      <c r="A50" s="439"/>
+      <c r="A50" s="446"/>
       <c r="B50" s="46" t="str">
         <f>CONCATENATE("Coppia REF [",EUnits,"]")</f>
         <v>Coppia REF [Nm]</v>
@@ -11802,45 +11782,45 @@
       </c>
     </row>
     <row r="51" spans="1:19" outlineLevel="1">
-      <c r="A51" s="439"/>
+      <c r="A51" s="446"/>
       <c r="B51" s="47" t="str">
         <f>CONCATENATE("Coppia UUT [",UUT_EUnits,"]")</f>
         <v>Coppia UUT [Nm]</v>
       </c>
-      <c r="C51" s="373">
+      <c r="C51" s="373" t="e">
         <f>Euramet!C81</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="D51" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D51" s="373" t="e">
         <f>Euramet!D81</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="E51" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="373" t="e">
         <f>Euramet!E81</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="F51" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="373" t="e">
         <f>Euramet!F81</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="G51" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="373" t="e">
         <f>Euramet!G81</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="H51" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H51" s="373" t="e">
         <f>Euramet!H81</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="I51" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I51" s="373" t="e">
         <f>Euramet!I81</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="1:19" outlineLevel="1">
-      <c r="A52" s="439"/>
+      <c r="A52" s="446"/>
     </row>
     <row r="53" spans="1:19" ht="41.4" outlineLevel="1">
-      <c r="A53" s="439"/>
+      <c r="A53" s="446"/>
       <c r="B53" s="48" t="s">
         <v>50</v>
       </c>
@@ -11867,7 +11847,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" outlineLevel="1">
-      <c r="A54" s="439"/>
+      <c r="A54" s="446"/>
       <c r="B54" s="46" t="str">
         <f>CONCATENATE("Coppia REF [",EUnits,"]")</f>
         <v>Coppia REF [Nm]</v>
@@ -11902,38 +11882,38 @@
       </c>
     </row>
     <row r="55" spans="1:19" outlineLevel="1">
-      <c r="A55" s="439"/>
+      <c r="A55" s="446"/>
       <c r="B55" s="47" t="str">
         <f>CONCATENATE("Coppia UUT [",UUT_EUnits,"]")</f>
         <v>Coppia UUT [Nm]</v>
       </c>
-      <c r="C55" s="373">
+      <c r="C55" s="373" t="e">
         <f>Euramet!C85</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="D55" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="373" t="e">
         <f>Euramet!D85</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="E55" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E55" s="373" t="e">
         <f>Euramet!E85</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="F55" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F55" s="373" t="e">
         <f>Euramet!F85</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="G55" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G55" s="373" t="e">
         <f>Euramet!G85</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="H55" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H55" s="373" t="e">
         <f>Euramet!H85</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="I55" s="373">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I55" s="373" t="e">
         <f>Euramet!I85</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" spans="1:19" outlineLevel="1"/>
@@ -12553,26 +12533,26 @@
       <c r="P20" s="24"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" customHeight="1" outlineLevel="1">
-      <c r="B21" s="464" t="s">
+      <c r="B21" s="465" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="465" t="s">
+      <c r="C21" s="466" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="465"/>
-      <c r="E21" s="466" t="s">
+      <c r="D21" s="466"/>
+      <c r="E21" s="467" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="466"/>
-      <c r="G21" s="467" t="s">
+      <c r="F21" s="467"/>
+      <c r="G21" s="468" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="467"/>
+      <c r="H21" s="468"/>
       <c r="K21" s="24"/>
       <c r="P21" s="24"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" customHeight="1" outlineLevel="1">
-      <c r="B22" s="464"/>
+      <c r="B22" s="465"/>
       <c r="C22" s="69">
         <f>SetPnt_P_0</f>
         <v>0</v>
@@ -12899,24 +12879,24 @@
       <c r="P37" s="24"/>
     </row>
     <row r="38" spans="1:24" ht="26.4" outlineLevel="1">
-      <c r="B38" s="468" t="s">
+      <c r="B38" s="458" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="468"/>
-      <c r="D38" s="468"/>
-      <c r="E38" s="468"/>
-      <c r="G38" s="468" t="s">
+      <c r="C38" s="458"/>
+      <c r="D38" s="458"/>
+      <c r="E38" s="458"/>
+      <c r="G38" s="458" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="468"/>
-      <c r="I38" s="468"/>
-      <c r="J38" s="468"/>
-      <c r="L38" s="468" t="s">
+      <c r="H38" s="458"/>
+      <c r="I38" s="458"/>
+      <c r="J38" s="458"/>
+      <c r="L38" s="458" t="s">
         <v>84</v>
       </c>
-      <c r="M38" s="468"/>
-      <c r="N38" s="468"/>
-      <c r="O38" s="468"/>
+      <c r="M38" s="458"/>
+      <c r="N38" s="458"/>
+      <c r="O38" s="458"/>
       <c r="Q38" s="459" t="s">
         <v>85</v>
       </c>
@@ -13468,19 +13448,19 @@
       </c>
     </row>
     <row r="50" spans="1:19" ht="17.399999999999999" outlineLevel="1">
-      <c r="G50" s="471" t="s">
+      <c r="G50" s="460" t="s">
         <v>90</v>
       </c>
-      <c r="H50" s="471"/>
-      <c r="I50" s="471"/>
-      <c r="J50" s="471"/>
+      <c r="H50" s="460"/>
+      <c r="I50" s="460"/>
+      <c r="J50" s="460"/>
       <c r="K50" s="59"/>
-      <c r="L50" s="472" t="s">
+      <c r="L50" s="461" t="s">
         <v>91</v>
       </c>
-      <c r="M50" s="472"/>
-      <c r="N50" s="472"/>
-      <c r="O50" s="472"/>
+      <c r="M50" s="461"/>
+      <c r="N50" s="461"/>
+      <c r="O50" s="461"/>
       <c r="Q50" s="17">
         <f>+SetPnt_P_4</f>
         <v>800</v>
@@ -15365,22 +15345,22 @@
         <v>149</v>
       </c>
       <c r="J121" s="169"/>
-      <c r="K121" s="458" t="s">
+      <c r="K121" s="464" t="s">
         <v>150</v>
       </c>
-      <c r="L121" s="458" t="s">
+      <c r="L121" s="464" t="s">
         <v>151</v>
       </c>
-      <c r="M121" s="458" t="s">
+      <c r="M121" s="464" t="s">
         <v>152</v>
       </c>
-      <c r="N121" s="458" t="s">
+      <c r="N121" s="464" t="s">
         <v>153</v>
       </c>
-      <c r="O121" s="458" t="s">
+      <c r="O121" s="464" t="s">
         <v>154</v>
       </c>
-      <c r="P121" s="458" t="s">
+      <c r="P121" s="464" t="s">
         <v>155</v>
       </c>
       <c r="R121" s="459" t="s">
@@ -15412,20 +15392,20 @@
       <c r="H122" s="462"/>
       <c r="I122" s="463"/>
       <c r="J122" s="169"/>
-      <c r="K122" s="458"/>
-      <c r="L122" s="458" t="s">
+      <c r="K122" s="464"/>
+      <c r="L122" s="464" t="s">
         <v>151</v>
       </c>
-      <c r="M122" s="458" t="s">
+      <c r="M122" s="464" t="s">
         <v>152</v>
       </c>
-      <c r="N122" s="458" t="s">
+      <c r="N122" s="464" t="s">
         <v>153</v>
       </c>
-      <c r="O122" s="458" t="s">
+      <c r="O122" s="464" t="s">
         <v>154</v>
       </c>
-      <c r="P122" s="458" t="s">
+      <c r="P122" s="464" t="s">
         <v>155</v>
       </c>
       <c r="R122" s="175"/>
@@ -15461,12 +15441,12 @@
       <c r="H123" s="462"/>
       <c r="I123" s="463"/>
       <c r="J123" s="169"/>
-      <c r="K123" s="458"/>
-      <c r="L123" s="458"/>
-      <c r="M123" s="458"/>
-      <c r="N123" s="458"/>
-      <c r="O123" s="458"/>
-      <c r="P123" s="458"/>
+      <c r="K123" s="464"/>
+      <c r="L123" s="464"/>
+      <c r="M123" s="464"/>
+      <c r="N123" s="464"/>
+      <c r="O123" s="464"/>
+      <c r="P123" s="464"/>
       <c r="R123" s="182" t="s">
         <v>162</v>
       </c>
@@ -16424,10 +16404,10 @@
         <v>157</v>
       </c>
       <c r="H155" s="227"/>
-      <c r="I155" s="469" t="s">
+      <c r="I155" s="456" t="s">
         <v>165</v>
       </c>
-      <c r="J155" s="470" t="s">
+      <c r="J155" s="457" t="s">
         <v>185</v>
       </c>
     </row>
@@ -16451,8 +16431,8 @@
         <v>186</v>
       </c>
       <c r="H156" s="231"/>
-      <c r="I156" s="469"/>
-      <c r="J156" s="470"/>
+      <c r="I156" s="456"/>
+      <c r="J156" s="457"/>
     </row>
     <row r="157" spans="2:10" outlineLevel="1">
       <c r="B157" s="232">
@@ -16816,22 +16796,22 @@
         <v>149</v>
       </c>
       <c r="J172" s="169"/>
-      <c r="K172" s="458" t="s">
+      <c r="K172" s="464" t="s">
         <v>150</v>
       </c>
-      <c r="L172" s="458" t="s">
+      <c r="L172" s="464" t="s">
         <v>151</v>
       </c>
-      <c r="M172" s="458" t="s">
+      <c r="M172" s="464" t="s">
         <v>152</v>
       </c>
-      <c r="N172" s="458" t="s">
+      <c r="N172" s="464" t="s">
         <v>153</v>
       </c>
-      <c r="O172" s="458" t="s">
+      <c r="O172" s="464" t="s">
         <v>154</v>
       </c>
-      <c r="P172" s="458" t="s">
+      <c r="P172" s="464" t="s">
         <v>155</v>
       </c>
       <c r="R172" s="459" t="s">
@@ -16863,20 +16843,20 @@
       <c r="H173" s="462"/>
       <c r="I173" s="463"/>
       <c r="J173" s="169"/>
-      <c r="K173" s="458"/>
-      <c r="L173" s="458" t="s">
+      <c r="K173" s="464"/>
+      <c r="L173" s="464" t="s">
         <v>151</v>
       </c>
-      <c r="M173" s="458" t="s">
+      <c r="M173" s="464" t="s">
         <v>152</v>
       </c>
-      <c r="N173" s="458" t="s">
+      <c r="N173" s="464" t="s">
         <v>153</v>
       </c>
-      <c r="O173" s="458" t="s">
+      <c r="O173" s="464" t="s">
         <v>154</v>
       </c>
-      <c r="P173" s="458" t="s">
+      <c r="P173" s="464" t="s">
         <v>155</v>
       </c>
       <c r="R173" s="175"/>
@@ -16912,12 +16892,12 @@
       <c r="H174" s="462"/>
       <c r="I174" s="463"/>
       <c r="J174" s="169"/>
-      <c r="K174" s="458"/>
-      <c r="L174" s="458"/>
-      <c r="M174" s="458"/>
-      <c r="N174" s="458"/>
-      <c r="O174" s="458"/>
-      <c r="P174" s="458"/>
+      <c r="K174" s="464"/>
+      <c r="L174" s="464"/>
+      <c r="M174" s="464"/>
+      <c r="N174" s="464"/>
+      <c r="O174" s="464"/>
+      <c r="P174" s="464"/>
       <c r="R174" s="182" t="s">
         <v>162</v>
       </c>
@@ -17745,10 +17725,10 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="52"/>
-      <c r="C194" s="460" t="s">
+      <c r="C194" s="471" t="s">
         <v>165</v>
       </c>
-      <c r="D194" s="461"/>
+      <c r="D194" s="472"/>
       <c r="E194" s="392">
         <f>A185</f>
         <v>200</v>
@@ -17772,10 +17752,10 @@
     </row>
     <row r="195" spans="1:9" ht="15" thickBot="1">
       <c r="A195" s="52"/>
-      <c r="C195" s="456" t="s">
+      <c r="C195" s="469" t="s">
         <v>185</v>
       </c>
-      <c r="D195" s="457"/>
+      <c r="D195" s="470"/>
       <c r="E195" s="395" t="e">
         <f>1/100*J185</f>
         <v>#VALUE!</v>
@@ -17804,6 +17784,23 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="N172:N174"/>
+    <mergeCell ref="O172:O174"/>
+    <mergeCell ref="P172:P174"/>
+    <mergeCell ref="R172:T172"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="H172:H174"/>
+    <mergeCell ref="I172:I174"/>
+    <mergeCell ref="K172:K174"/>
+    <mergeCell ref="L172:L174"/>
+    <mergeCell ref="M172:M174"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:J38"/>
     <mergeCell ref="I155:I156"/>
     <mergeCell ref="J155:J156"/>
     <mergeCell ref="L38:O38"/>
@@ -17819,23 +17816,6 @@
     <mergeCell ref="O121:O123"/>
     <mergeCell ref="P121:P123"/>
     <mergeCell ref="R121:T121"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="N172:N174"/>
-    <mergeCell ref="O172:O174"/>
-    <mergeCell ref="P172:P174"/>
-    <mergeCell ref="R172:T172"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="H172:H174"/>
-    <mergeCell ref="I172:I174"/>
-    <mergeCell ref="K172:K174"/>
-    <mergeCell ref="L172:L174"/>
-    <mergeCell ref="M172:M174"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -18165,26 +18145,26 @@
       <c r="P20" s="24"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="B21" s="464" t="s">
+      <c r="B21" s="465" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="465" t="s">
+      <c r="C21" s="466" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="465"/>
-      <c r="E21" s="466" t="s">
+      <c r="D21" s="466"/>
+      <c r="E21" s="467" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="466"/>
-      <c r="G21" s="467" t="s">
+      <c r="F21" s="467"/>
+      <c r="G21" s="468" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="467"/>
+      <c r="H21" s="468"/>
       <c r="K21" s="24"/>
       <c r="P21" s="24"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" customHeight="1" outlineLevel="1" thickTop="1" thickBot="1">
-      <c r="B22" s="464"/>
+      <c r="B22" s="465"/>
       <c r="C22" s="69">
         <f>$B$11</f>
         <v>0</v>
@@ -18217,11 +18197,11 @@
       </c>
       <c r="C23" s="75">
         <f>'Istruzioni Uso'!C46</f>
-        <v>0.29453522709516428</v>
+        <v>0</v>
       </c>
       <c r="D23" s="75">
         <f>'Istruzioni Uso'!D46</f>
-        <v>-256.57479512561247</v>
+        <v>0</v>
       </c>
       <c r="E23" s="75">
         <f>'Istruzioni Uso'!E46</f>
@@ -18245,29 +18225,29 @@
         <f>CONCATENATE("Coppia UUT [",EUnits,"]")</f>
         <v>Coppia UUT [Nm]</v>
       </c>
-      <c r="C24" s="79">
+      <c r="C24" s="79" t="e">
         <f>'Istruzioni Uso'!C47</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="79">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="79" t="e">
         <f>'Istruzioni Uso'!D47</f>
-        <v>-128.86499999999995</v>
-      </c>
-      <c r="E24" s="79">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="79" t="e">
         <f>'Istruzioni Uso'!E47</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="F24" s="80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="80" t="e">
         <f>'Istruzioni Uso'!F47</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="G24" s="81">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="81" t="e">
         <f>'Istruzioni Uso'!G47</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="H24" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="82" t="e">
         <f>'Istruzioni Uso'!H47</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15" outlineLevel="1" thickBot="1"/>
@@ -18336,33 +18316,33 @@
         <f>CONCATENATE("Coppia UUT [",EUnits,"]")</f>
         <v>Coppia UUT [Nm]</v>
       </c>
-      <c r="C28" s="80">
+      <c r="C28" s="80" t="e">
         <f>'Istruzioni Uso'!C51</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="D28" s="81">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="81" t="e">
         <f>'Istruzioni Uso'!D51</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="E28" s="80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="80" t="e">
         <f>'Istruzioni Uso'!E51</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="F28" s="81">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="81" t="e">
         <f>'Istruzioni Uso'!F51</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="G28" s="80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="80" t="e">
         <f>'Istruzioni Uso'!G51</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="H28" s="81">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="81" t="e">
         <f>'Istruzioni Uso'!H51</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="I28" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="82" t="e">
         <f>'Istruzioni Uso'!I51</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15" outlineLevel="1" thickBot="1"/>
@@ -18431,33 +18411,33 @@
         <f>CONCATENATE("Coppia UUT [",EUnits,"]")</f>
         <v>Coppia UUT [Nm]</v>
       </c>
-      <c r="C32" s="80">
+      <c r="C32" s="80" t="e">
         <f>'Istruzioni Uso'!C55</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="D32" s="81">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="81" t="e">
         <f>'Istruzioni Uso'!D55</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="E32" s="80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="80" t="e">
         <f>'Istruzioni Uso'!E55</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="F32" s="81">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="81" t="e">
         <f>'Istruzioni Uso'!F55</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="G32" s="80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="80" t="e">
         <f>'Istruzioni Uso'!G55</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="H32" s="81">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="81" t="e">
         <f>'Istruzioni Uso'!H55</f>
-        <v>-605.53749999999991</v>
-      </c>
-      <c r="I32" s="82">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="82" t="e">
         <f>'Istruzioni Uso'!I55</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -18511,24 +18491,24 @@
       <c r="P37" s="24"/>
     </row>
     <row r="38" spans="1:24" ht="27" outlineLevel="1" thickBot="1">
-      <c r="B38" s="468" t="s">
+      <c r="B38" s="458" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="468"/>
-      <c r="D38" s="468"/>
-      <c r="E38" s="468"/>
-      <c r="G38" s="468" t="s">
+      <c r="C38" s="458"/>
+      <c r="D38" s="458"/>
+      <c r="E38" s="458"/>
+      <c r="G38" s="458" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="468"/>
-      <c r="I38" s="468"/>
-      <c r="J38" s="468"/>
-      <c r="L38" s="468" t="s">
+      <c r="H38" s="458"/>
+      <c r="I38" s="458"/>
+      <c r="J38" s="458"/>
+      <c r="L38" s="458" t="s">
         <v>84</v>
       </c>
-      <c r="M38" s="468"/>
-      <c r="N38" s="468"/>
-      <c r="O38" s="468"/>
+      <c r="M38" s="458"/>
+      <c r="N38" s="458"/>
+      <c r="O38" s="458"/>
       <c r="Q38" s="459" t="s">
         <v>85</v>
       </c>
@@ -18608,49 +18588,49 @@
         <f>SetPnt_P_0</f>
         <v>0</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="e">
         <f>C24</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D40">
         <f>C23</f>
-        <v>0.29453522709516428</v>
-      </c>
-      <c r="E40" s="90">
+        <v>0</v>
+      </c>
+      <c r="E40" s="90" t="e">
         <f t="shared" ref="E40:E45" si="0">C40*$C$5+$C$6</f>
-        <v>2.5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G40">
         <f>SetPnt_N_0</f>
         <v>0</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="e">
         <f>C28</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I40">
         <f>C27</f>
         <v>0</v>
       </c>
-      <c r="J40" s="90">
+      <c r="J40" s="90" t="e">
         <f t="shared" ref="J40:J46" si="1">H40*$C$5+$C$6</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L40">
         <f>SetPnt_N_0</f>
         <v>0</v>
       </c>
-      <c r="M40">
+      <c r="M40" t="e">
         <f>C32</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N40">
         <f>C31</f>
         <v>0</v>
       </c>
-      <c r="O40" s="90">
+      <c r="O40" s="90" t="e">
         <f t="shared" ref="O40:O46" si="2">M40*$C$5+$C$6</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q40">
         <f>SetPnt_N_0</f>
@@ -18660,9 +18640,9 @@
         <f t="shared" ref="R40:S45" si="3">I40</f>
         <v>0</v>
       </c>
-      <c r="S40" s="91">
+      <c r="S40" s="91" t="e">
         <f t="shared" si="3"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:24" outlineLevel="1">
@@ -18670,49 +18650,49 @@
         <f>C_Tar_min</f>
         <v>-1000</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="e">
         <f>D24</f>
-        <v>-128.86499999999995</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D41">
         <f>D23</f>
-        <v>-256.57479512561247</v>
-      </c>
-      <c r="E41" s="90">
+        <v>0</v>
+      </c>
+      <c r="E41" s="90" t="e">
         <f t="shared" si="0"/>
-        <v>1.9845400000000002</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G41" s="17">
         <f>SetPnt_N_1</f>
         <v>-200</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="e">
         <f>D28</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I41">
         <f>D27</f>
         <v>0</v>
       </c>
-      <c r="J41" s="90">
+      <c r="J41" s="90" t="e">
         <f t="shared" si="1"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L41" s="17">
         <f>SetPnt_N_1</f>
         <v>-200</v>
       </c>
-      <c r="M41">
+      <c r="M41" t="e">
         <f>D32</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N41">
         <f>D31</f>
         <v>0</v>
       </c>
-      <c r="O41" s="90">
+      <c r="O41" s="90" t="e">
         <f t="shared" si="2"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="17">
         <f>SetPnt_N_1</f>
@@ -18722,9 +18702,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S41" s="91">
+      <c r="S41" s="91" t="e">
         <f t="shared" si="3"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:24" outlineLevel="1">
@@ -18732,49 +18712,49 @@
         <f>B40</f>
         <v>0</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="e">
         <f>E24</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D42">
         <f>E23</f>
         <v>0</v>
       </c>
-      <c r="E42" s="90">
+      <c r="E42" s="90" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G42" s="17">
         <f>SetPnt_N_2</f>
         <v>-400</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="e">
         <f>E28</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I42">
         <f>E27</f>
         <v>0</v>
       </c>
-      <c r="J42" s="90">
+      <c r="J42" s="90" t="e">
         <f t="shared" si="1"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L42" s="17">
         <f>SetPnt_N_2</f>
         <v>-400</v>
       </c>
-      <c r="M42">
+      <c r="M42" t="e">
         <f>E32</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N42">
         <f>E31</f>
         <v>0</v>
       </c>
-      <c r="O42" s="90">
+      <c r="O42" s="90" t="e">
         <f t="shared" si="2"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="17">
         <f>SetPnt_N_2</f>
@@ -18784,9 +18764,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S42" s="91">
+      <c r="S42" s="91" t="e">
         <f t="shared" si="3"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="1:24" outlineLevel="1">
@@ -18794,49 +18774,49 @@
         <f>B41</f>
         <v>-1000</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="e">
         <f>F24</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D43">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="E43" s="90">
+      <c r="E43" s="90" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G43" s="17">
         <f>SetPnt_N_3</f>
         <v>-600</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="e">
         <f>F28</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I43">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="J43" s="90">
+      <c r="J43" s="90" t="e">
         <f t="shared" si="1"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L43" s="17">
         <f>SetPnt_N_3</f>
         <v>-600</v>
       </c>
-      <c r="M43">
+      <c r="M43" t="e">
         <f>F32</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N43">
         <f>F31</f>
         <v>0</v>
       </c>
-      <c r="O43" s="90">
+      <c r="O43" s="90" t="e">
         <f t="shared" si="2"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q43" s="17">
         <f>SetPnt_N_3</f>
@@ -18846,9 +18826,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S43" s="91">
+      <c r="S43" s="91" t="e">
         <f t="shared" si="3"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="1:24" outlineLevel="1">
@@ -18856,49 +18836,49 @@
         <f>B42</f>
         <v>0</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="e">
         <f>G24</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D44">
         <f>G23</f>
         <v>0</v>
       </c>
-      <c r="E44" s="90">
+      <c r="E44" s="90" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G44" s="17">
         <f>SetPnt_N_4</f>
         <v>-800</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="e">
         <f>G28</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I44">
         <f>G27</f>
         <v>0</v>
       </c>
-      <c r="J44" s="90">
+      <c r="J44" s="90" t="e">
         <f t="shared" si="1"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L44" s="17">
         <f>SetPnt_N_4</f>
         <v>-800</v>
       </c>
-      <c r="M44">
+      <c r="M44" t="e">
         <f>G32</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N44">
         <f>G31</f>
         <v>0</v>
       </c>
-      <c r="O44" s="90">
+      <c r="O44" s="90" t="e">
         <f t="shared" si="2"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q44" s="17">
         <f>SetPnt_N_4</f>
@@ -18908,9 +18888,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S44" s="91">
+      <c r="S44" s="91" t="e">
         <f t="shared" si="3"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="1:24" outlineLevel="1">
@@ -18918,49 +18898,49 @@
         <f>B43</f>
         <v>-1000</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="e">
         <f>H24</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D45">
         <f>H23</f>
         <v>0</v>
       </c>
-      <c r="E45" s="90">
+      <c r="E45" s="90" t="e">
         <f t="shared" si="0"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G45" s="17">
         <f>SetPnt_N_5</f>
         <v>-1000</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="e">
         <f>H28</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I45">
         <f>H27</f>
         <v>0</v>
       </c>
-      <c r="J45" s="90">
+      <c r="J45" s="90" t="e">
         <f t="shared" si="1"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L45" s="17">
         <f>SetPnt_N_5</f>
         <v>-1000</v>
       </c>
-      <c r="M45">
+      <c r="M45" t="e">
         <f>H32</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N45">
         <f>H31</f>
         <v>0</v>
       </c>
-      <c r="O45" s="90">
+      <c r="O45" s="90" t="e">
         <f t="shared" si="2"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q45" s="17">
         <f>SetPnt_N_5</f>
@@ -18970,9 +18950,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S45" s="91">
+      <c r="S45" s="91" t="e">
         <f t="shared" si="3"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="1:24" outlineLevel="1">
@@ -18980,33 +18960,33 @@
         <f>SetPnt_N_0</f>
         <v>0</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="e">
         <f>I28</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I46">
         <f>I27</f>
         <v>0</v>
       </c>
-      <c r="J46" s="90">
+      <c r="J46" s="90" t="e">
         <f t="shared" si="1"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L46">
         <f>SetPnt_N_0</f>
         <v>0</v>
       </c>
-      <c r="M46">
+      <c r="M46" t="e">
         <f>I32</f>
-        <v>-605.53749999999991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N46">
         <f>I31</f>
         <v>0</v>
       </c>
-      <c r="O46" s="90">
+      <c r="O46" s="90" t="e">
         <f t="shared" si="2"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q46">
         <f>SetPnt_N_0</f>
@@ -19016,9 +18996,9 @@
         <f t="shared" ref="R46:S51" si="4">N40</f>
         <v>0</v>
       </c>
-      <c r="S46" s="91">
+      <c r="S46" s="91" t="e">
         <f t="shared" si="4"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="15" outlineLevel="1" thickBot="1">
@@ -19030,9 +19010,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S47" s="91">
+      <c r="S47" s="91" t="e">
         <f t="shared" si="4"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="18" outlineLevel="1">
@@ -19055,9 +19035,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S48" s="91">
+      <c r="S48" s="91" t="e">
         <f t="shared" si="4"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="1:19" outlineLevel="1">
@@ -19074,25 +19054,25 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S49" s="91">
+      <c r="S49" s="91" t="e">
         <f t="shared" si="4"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="18" outlineLevel="1" thickBot="1">
-      <c r="G50" s="471" t="s">
+      <c r="G50" s="460" t="s">
         <v>90</v>
       </c>
-      <c r="H50" s="471"/>
-      <c r="I50" s="471"/>
-      <c r="J50" s="471"/>
+      <c r="H50" s="460"/>
+      <c r="I50" s="460"/>
+      <c r="J50" s="460"/>
       <c r="K50" s="59"/>
-      <c r="L50" s="472" t="s">
+      <c r="L50" s="461" t="s">
         <v>91</v>
       </c>
-      <c r="M50" s="472"/>
-      <c r="N50" s="472"/>
-      <c r="O50" s="472"/>
+      <c r="M50" s="461"/>
+      <c r="N50" s="461"/>
+      <c r="O50" s="461"/>
       <c r="Q50" s="17">
         <f>SetPnt_N_4</f>
         <v>-800</v>
@@ -19101,9 +19081,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S50" s="91">
+      <c r="S50" s="91" t="e">
         <f t="shared" si="4"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="16.2" outlineLevel="1" thickTop="1">
@@ -19139,9 +19119,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S51" s="91">
+      <c r="S51" s="91" t="e">
         <f t="shared" si="4"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="1:19" outlineLevel="1">
@@ -19360,17 +19340,17 @@
         <f>CONCATENATE($B$4,"/V")</f>
         <v>Nm/V</v>
       </c>
-      <c r="C63" s="116">
+      <c r="C63" s="116" t="e">
         <f>INDEX(LINEST(R40:R51,(S40:S51)^{1,2}),1)</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="116">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D63" s="116" t="e">
         <f>INDEX(LINEST(R40:R51,(S40:S51)^{1,2}),1,2)</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="117">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E63" s="117" t="e">
         <f>INDEX(LINEST(R40:R51,(S40:S51)^{1,2}),1,3)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="15" outlineLevel="1" thickBot="1">
@@ -19378,17 +19358,17 @@
         <f>CONCATENATE("V/",$B$4)</f>
         <v>V/Nm</v>
       </c>
-      <c r="C64" s="118">
+      <c r="C64" s="118" t="e">
         <f>INDEX(LINEST(S40:S51,(R40:R51)^{1,2}),1)</f>
-        <v>0</v>
-      </c>
-      <c r="D64" s="118">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D64" s="118" t="e">
         <f>INDEX(LINEST(S40:S51,(R40:R51)^{1,2}),1,2)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="119">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E64" s="119" t="e">
         <f>INDEX(LINEST(S40:S51,(R40:R51)^{1,2}),1,3)</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="25.8">
@@ -19440,13 +19420,13 @@
       <c r="F70" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="G70" s="112">
+      <c r="G70" s="112" t="e">
         <f>LINEST(E72:E73,F72:F73)</f>
-        <v>498.33028819444326</v>
-      </c>
-      <c r="H70" s="106">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H70" s="106" t="e">
         <f>INTERCEPT(E72:E73,F72:F73)</f>
-        <v>-1245.5311852590128</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -19456,13 +19436,13 @@
       <c r="F71" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="G71" s="121">
+      <c r="G71" s="121" t="e">
         <f>LINEST(F72:F73,E72:E73)</f>
-        <v>2.0067012254527273E-3</v>
-      </c>
-      <c r="H71" s="122">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H71" s="122" t="e">
         <f>INTERCEPT(F72:F73,E72:E73)</f>
-        <v>2.4994089557988493</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="72" spans="1:24" outlineLevel="1">
@@ -19474,9 +19454,9 @@
         <f>SetPnt_N_0</f>
         <v>0</v>
       </c>
-      <c r="C72" s="91">
+      <c r="C72" s="91" t="e">
         <f>B72*$G$71+$H$71</f>
-        <v>2.4994089557988493</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D72" s="91" t="e">
         <f t="shared" ref="D72:D73" si="5">B72*$C$60+$D$60</f>
@@ -19484,15 +19464,15 @@
       </c>
       <c r="E72" s="133">
         <f>D40</f>
-        <v>0.29453522709516428</v>
-      </c>
-      <c r="F72" s="133">
+        <v>0</v>
+      </c>
+      <c r="F72" s="133" t="e">
         <f>E40</f>
-        <v>2.5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G72" s="91" t="e">
         <f>E72*$G$94+$H$94</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H72" s="91" t="e">
         <f t="shared" ref="H72:H73" si="6">F72-G72</f>
@@ -19500,7 +19480,7 @@
       </c>
       <c r="I72" s="134" t="e">
         <f t="shared" ref="I72:I73" si="7">C72+H72</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J72" s="135" t="e">
         <f t="shared" ref="J72:J73" si="8">H72/4</f>
@@ -19517,7 +19497,7 @@
       </c>
       <c r="N72" s="134" t="e">
         <f t="shared" ref="N72:N73" si="11">C72+M72</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O72" s="398" t="e">
         <f>M72/4</f>
@@ -19533,9 +19513,9 @@
         <f>SetPnt_N_5</f>
         <v>-1000</v>
       </c>
-      <c r="C73" s="91">
+      <c r="C73" s="91" t="e">
         <f>B73*$G$71+$H$71</f>
-        <v>0.49270773034612203</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D73" s="91" t="e">
         <f t="shared" si="5"/>
@@ -19543,27 +19523,27 @@
       </c>
       <c r="E73" s="133">
         <f>D41</f>
-        <v>-256.57479512561247</v>
-      </c>
-      <c r="F73" s="133">
+        <v>0</v>
+      </c>
+      <c r="F73" s="133" t="e">
         <f>E41</f>
-        <v>1.9845400000000002</v>
-      </c>
-      <c r="G73" s="91">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G73" s="91" t="e">
         <f>E73*$G$71+$H$71</f>
-        <v>1.9845400000000004</v>
-      </c>
-      <c r="H73" s="91">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H73" s="91" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="134">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I73" s="134" t="e">
         <f t="shared" si="7"/>
-        <v>0.49270773034612203</v>
-      </c>
-      <c r="J73" s="135">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J73" s="135" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K73" s="136"/>
       <c r="L73" s="91" t="e">
@@ -19576,7 +19556,7 @@
       </c>
       <c r="N73" s="134" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O73" s="398" t="e">
         <f t="shared" ref="O73" si="12">M73/4</f>
@@ -19604,9 +19584,9 @@
       <c r="F77" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="G77" s="112">
+      <c r="G77" s="112" t="e">
         <f>LINEST(E79:E80,F79:F80)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H77" s="106" t="e">
         <f>INTERCEPT(E79:E80,F79:F80)</f>
@@ -19620,9 +19600,9 @@
       <c r="F78" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="G78" s="121">
+      <c r="G78" s="121" t="e">
         <f>LINEST(F79:F80,E79:E80)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H78" s="122" t="e">
         <f>INTERCEPT(F79:F80,E79:E80)</f>
@@ -19640,7 +19620,7 @@
       </c>
       <c r="C79" s="91" t="e">
         <f>B79*$G$78+$H$78</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D79" s="91" t="e">
         <f t="shared" ref="D79:D80" si="13">B79*$C$60+$D$60</f>
@@ -19650,13 +19630,13 @@
         <f>D42</f>
         <v>0</v>
       </c>
-      <c r="F79" s="133">
+      <c r="F79" s="133" t="e">
         <f>E42</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G79" s="91" t="e">
         <f>E79*$G$94+$H$94</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H79" s="91" t="e">
         <f t="shared" ref="H79:H80" si="14">F79-G79</f>
@@ -19664,7 +19644,7 @@
       </c>
       <c r="I79" s="134" t="e">
         <f>C79+H79</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J79" s="135" t="e">
         <f>H79/4</f>
@@ -19681,7 +19661,7 @@
       </c>
       <c r="N79" s="134" t="e">
         <f t="shared" ref="N79:N80" si="16">C79+M79</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O79" s="398" t="e">
         <f>M79/4</f>
@@ -19699,7 +19679,7 @@
       </c>
       <c r="C80" s="91" t="e">
         <f>B80*$G$78+$H$78</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D80" s="91" t="e">
         <f t="shared" si="13"/>
@@ -19709,13 +19689,13 @@
         <f>D43</f>
         <v>0</v>
       </c>
-      <c r="F80" s="133">
+      <c r="F80" s="133" t="e">
         <f>E43</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G80" s="91" t="e">
         <f>E80*$G$78+$H$78</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H80" s="91" t="e">
         <f t="shared" si="14"/>
@@ -19723,7 +19703,7 @@
       </c>
       <c r="I80" s="134" t="e">
         <f>C80+H80</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J80" s="135" t="e">
         <f>H80/4</f>
@@ -19740,7 +19720,7 @@
       </c>
       <c r="N80" s="134" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O80" s="398" t="e">
         <f t="shared" ref="O80" si="17">M80/4</f>
@@ -19768,9 +19748,9 @@
       <c r="F84" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="G84" s="112">
+      <c r="G84" s="112" t="e">
         <f>LINEST(E86:E87,F86:F87)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H84" s="106" t="e">
         <f>INTERCEPT(E86:E87,F86:F87)</f>
@@ -19784,9 +19764,9 @@
       <c r="F85" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="G85" s="121">
+      <c r="G85" s="121" t="e">
         <f>LINEST(F86:F87,E86:E87)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H85" s="122" t="e">
         <f>INTERCEPT(F86:F87,E86:E87)</f>
@@ -19804,7 +19784,7 @@
       </c>
       <c r="C86" s="91" t="e">
         <f>B86*$G$85+$H$85</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D86" s="91" t="e">
         <f t="shared" ref="D86:D87" si="18">B86*$C$60+$D$60</f>
@@ -19814,13 +19794,13 @@
         <f>D44</f>
         <v>0</v>
       </c>
-      <c r="F86" s="133">
+      <c r="F86" s="133" t="e">
         <f>E44</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G86" s="91" t="e">
         <f>E86*$G$94+$H$94</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H86" s="91" t="e">
         <f t="shared" ref="H86:H87" si="19">F86-G86</f>
@@ -19828,7 +19808,7 @@
       </c>
       <c r="I86" s="134" t="e">
         <f>C86+H86</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J86" s="135" t="e">
         <f>H86/4</f>
@@ -19845,7 +19825,7 @@
       </c>
       <c r="N86" s="134" t="e">
         <f t="shared" ref="N86:N87" si="21">C86+M86</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O86" s="398" t="e">
         <f>M86/4</f>
@@ -19863,7 +19843,7 @@
       </c>
       <c r="C87" s="91" t="e">
         <f>B87*$G$85+$H$85</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D87" s="91" t="e">
         <f t="shared" si="18"/>
@@ -19873,13 +19853,13 @@
         <f>D45</f>
         <v>0</v>
       </c>
-      <c r="F87" s="133">
+      <c r="F87" s="133" t="e">
         <f>E45</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G87" s="91" t="e">
         <f>E87*$G$85+$H$85</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H87" s="91" t="e">
         <f t="shared" si="19"/>
@@ -19887,7 +19867,7 @@
       </c>
       <c r="I87" s="134" t="e">
         <f>C87+H87</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J87" s="135" t="e">
         <f>H87/4</f>
@@ -19904,7 +19884,7 @@
       </c>
       <c r="N87" s="134" t="e">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O87" s="398" t="e">
         <f t="shared" ref="O87" si="22">M87/4</f>
@@ -19934,9 +19914,9 @@
       <c r="F93" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="G93" s="112">
+      <c r="G93" s="112" t="e">
         <f>LINEST(E96:E101,F96:F101)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H93" s="106" t="e">
         <f>INTERCEPT(E96:E101,F96:F101)</f>
@@ -19947,9 +19927,9 @@
       <c r="F94" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="G94" s="121">
+      <c r="G94" s="121" t="e">
         <f>LINEST(F96:F101,E96:E101)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H94" s="122" t="e">
         <f>INTERCEPT(F96:F101,E96:E101)</f>
@@ -20012,7 +19992,7 @@
       </c>
       <c r="C96" s="91" t="e">
         <f t="shared" ref="C96:C101" si="24">B96*$G$94+$H$94</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D96" s="91" t="e">
         <f t="shared" ref="D96:D101" si="25">B96*$C$60+$D$60</f>
@@ -20022,13 +20002,13 @@
         <f t="shared" ref="E96:F101" si="26">I40</f>
         <v>0</v>
       </c>
-      <c r="F96" s="133">
+      <c r="F96" s="133" t="e">
         <f t="shared" si="26"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G96" s="91" t="e">
         <f t="shared" ref="G96:G101" si="27">E96*$G$94+$H$94</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H96" s="91" t="e">
         <f t="shared" ref="H96:H101" si="28">F96-G96</f>
@@ -20036,7 +20016,7 @@
       </c>
       <c r="I96" s="134" t="e">
         <f t="shared" ref="I96:I101" si="29">C96+H96</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J96" s="135" t="e">
         <f t="shared" ref="J96:J101" si="30">H96/4</f>
@@ -20053,7 +20033,7 @@
       </c>
       <c r="N96" s="134" t="e">
         <f t="shared" ref="N96:N101" si="33">C96+M96</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O96" s="137" t="e">
         <f t="shared" ref="O96:O101" si="34">M96/4</f>
@@ -20071,7 +20051,7 @@
       </c>
       <c r="C97" s="91" t="e">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D97" s="91" t="e">
         <f t="shared" si="25"/>
@@ -20081,13 +20061,13 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F97" s="133">
+      <c r="F97" s="133" t="e">
         <f t="shared" si="26"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G97" s="91" t="e">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H97" s="91" t="e">
         <f t="shared" si="28"/>
@@ -20095,7 +20075,7 @@
       </c>
       <c r="I97" s="134" t="e">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J97" s="135" t="e">
         <f t="shared" si="30"/>
@@ -20112,7 +20092,7 @@
       </c>
       <c r="N97" s="134" t="e">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O97" s="137" t="e">
         <f t="shared" si="34"/>
@@ -20130,7 +20110,7 @@
       </c>
       <c r="C98" s="91" t="e">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D98" s="91" t="e">
         <f t="shared" si="25"/>
@@ -20140,13 +20120,13 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F98" s="133">
+      <c r="F98" s="133" t="e">
         <f t="shared" si="26"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G98" s="91" t="e">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H98" s="91" t="e">
         <f t="shared" si="28"/>
@@ -20154,7 +20134,7 @@
       </c>
       <c r="I98" s="134" t="e">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J98" s="135" t="e">
         <f t="shared" si="30"/>
@@ -20171,7 +20151,7 @@
       </c>
       <c r="N98" s="134" t="e">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O98" s="137" t="e">
         <f t="shared" si="34"/>
@@ -20189,7 +20169,7 @@
       </c>
       <c r="C99" s="91" t="e">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D99" s="91" t="e">
         <f t="shared" si="25"/>
@@ -20199,13 +20179,13 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F99" s="133">
+      <c r="F99" s="133" t="e">
         <f t="shared" si="26"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G99" s="91" t="e">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H99" s="91" t="e">
         <f t="shared" si="28"/>
@@ -20213,7 +20193,7 @@
       </c>
       <c r="I99" s="134" t="e">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J99" s="135" t="e">
         <f t="shared" si="30"/>
@@ -20230,7 +20210,7 @@
       </c>
       <c r="N99" s="134" t="e">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O99" s="137" t="e">
         <f t="shared" si="34"/>
@@ -20248,7 +20228,7 @@
       </c>
       <c r="C100" s="91" t="e">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D100" s="91" t="e">
         <f t="shared" si="25"/>
@@ -20258,13 +20238,13 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F100" s="133">
+      <c r="F100" s="133" t="e">
         <f t="shared" si="26"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G100" s="91" t="e">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H100" s="91" t="e">
         <f t="shared" si="28"/>
@@ -20272,7 +20252,7 @@
       </c>
       <c r="I100" s="134" t="e">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J100" s="135" t="e">
         <f t="shared" si="30"/>
@@ -20289,7 +20269,7 @@
       </c>
       <c r="N100" s="134" t="e">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O100" s="137" t="e">
         <f t="shared" si="34"/>
@@ -20307,7 +20287,7 @@
       </c>
       <c r="C101" s="140" t="e">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D101" s="140" t="e">
         <f t="shared" si="25"/>
@@ -20317,13 +20297,13 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F101" s="141">
+      <c r="F101" s="141" t="e">
         <f t="shared" si="26"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G101" s="140" t="e">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H101" s="140" t="e">
         <f t="shared" si="28"/>
@@ -20331,7 +20311,7 @@
       </c>
       <c r="I101" s="142" t="e">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J101" s="143" t="e">
         <f t="shared" si="30"/>
@@ -20348,7 +20328,7 @@
       </c>
       <c r="N101" s="142" t="e">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O101" s="145" t="e">
         <f t="shared" si="34"/>
@@ -20375,9 +20355,9 @@
       <c r="F104" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="G104" s="112">
+      <c r="G104" s="112" t="e">
         <f>LINEST(E107:E112,F107:F112)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H104" s="106" t="e">
         <f>INTERCEPT(E107:E112,F107:F112)</f>
@@ -20388,9 +20368,9 @@
       <c r="F105" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="G105" s="146">
+      <c r="G105" s="146" t="e">
         <f>LINEST(F107:F112,E107:E112)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H105" s="147" t="e">
         <f>INTERCEPT(F107:F112,E107:E112)</f>
@@ -20453,7 +20433,7 @@
       </c>
       <c r="C107" s="91" t="e">
         <f t="shared" ref="C107:C112" si="36">B107*$G$105+$H$105</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D107" s="91" t="e">
         <f t="shared" ref="D107:D112" si="37">B107*$C$60+$D$60</f>
@@ -20463,13 +20443,13 @@
         <f t="shared" ref="E107:F112" si="38">N40</f>
         <v>0</v>
       </c>
-      <c r="F107" s="133">
+      <c r="F107" s="133" t="e">
         <f t="shared" si="38"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G107" s="91" t="e">
         <f t="shared" ref="G107:G112" si="39">E107*$G$105+$H$105</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H107" s="91" t="e">
         <f t="shared" ref="H107:H112" si="40">F107-G107</f>
@@ -20477,7 +20457,7 @@
       </c>
       <c r="I107" s="134" t="e">
         <f t="shared" ref="I107:I112" si="41">C107+H107</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J107" s="135" t="e">
         <f t="shared" ref="J107:J112" si="42">H107/4</f>
@@ -20494,7 +20474,7 @@
       </c>
       <c r="N107" s="134" t="e">
         <f t="shared" ref="N107:N112" si="45">C107+M107</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O107" s="137" t="e">
         <f t="shared" ref="O107:O112" si="46">M107/4</f>
@@ -20512,7 +20492,7 @@
       </c>
       <c r="C108" s="91" t="e">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D108" s="91" t="e">
         <f t="shared" si="37"/>
@@ -20522,13 +20502,13 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F108" s="133">
+      <c r="F108" s="133" t="e">
         <f t="shared" si="38"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G108" s="91" t="e">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H108" s="91" t="e">
         <f t="shared" si="40"/>
@@ -20536,7 +20516,7 @@
       </c>
       <c r="I108" s="134" t="e">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J108" s="135" t="e">
         <f t="shared" si="42"/>
@@ -20553,7 +20533,7 @@
       </c>
       <c r="N108" s="134" t="e">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O108" s="137" t="e">
         <f t="shared" si="46"/>
@@ -20571,7 +20551,7 @@
       </c>
       <c r="C109" s="91" t="e">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D109" s="91" t="e">
         <f t="shared" si="37"/>
@@ -20581,13 +20561,13 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F109" s="133">
+      <c r="F109" s="133" t="e">
         <f t="shared" si="38"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G109" s="91" t="e">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H109" s="91" t="e">
         <f t="shared" si="40"/>
@@ -20595,7 +20575,7 @@
       </c>
       <c r="I109" s="134" t="e">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J109" s="135" t="e">
         <f t="shared" si="42"/>
@@ -20612,7 +20592,7 @@
       </c>
       <c r="N109" s="134" t="e">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O109" s="137" t="e">
         <f t="shared" si="46"/>
@@ -20630,7 +20610,7 @@
       </c>
       <c r="C110" s="91" t="e">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D110" s="91" t="e">
         <f t="shared" si="37"/>
@@ -20640,13 +20620,13 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F110" s="133">
+      <c r="F110" s="133" t="e">
         <f t="shared" si="38"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G110" s="91" t="e">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H110" s="91" t="e">
         <f t="shared" si="40"/>
@@ -20654,7 +20634,7 @@
       </c>
       <c r="I110" s="134" t="e">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J110" s="135" t="e">
         <f t="shared" si="42"/>
@@ -20671,7 +20651,7 @@
       </c>
       <c r="N110" s="134" t="e">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O110" s="137" t="e">
         <f t="shared" si="46"/>
@@ -20689,7 +20669,7 @@
       </c>
       <c r="C111" s="91" t="e">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D111" s="91" t="e">
         <f t="shared" si="37"/>
@@ -20699,13 +20679,13 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F111" s="133">
+      <c r="F111" s="133" t="e">
         <f t="shared" si="38"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G111" s="91" t="e">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H111" s="91" t="e">
         <f t="shared" si="40"/>
@@ -20713,7 +20693,7 @@
       </c>
       <c r="I111" s="134" t="e">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J111" s="135" t="e">
         <f t="shared" si="42"/>
@@ -20730,7 +20710,7 @@
       </c>
       <c r="N111" s="134" t="e">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O111" s="137" t="e">
         <f t="shared" si="46"/>
@@ -20748,7 +20728,7 @@
       </c>
       <c r="C112" s="140" t="e">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D112" s="140" t="e">
         <f t="shared" si="37"/>
@@ -20758,13 +20738,13 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F112" s="141">
+      <c r="F112" s="141" t="e">
         <f t="shared" si="38"/>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G112" s="140" t="e">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H112" s="140" t="e">
         <f t="shared" si="40"/>
@@ -20772,7 +20752,7 @@
       </c>
       <c r="I112" s="142" t="e">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J112" s="143" t="e">
         <f t="shared" si="42"/>
@@ -20789,7 +20769,7 @@
       </c>
       <c r="N112" s="142" t="e">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O112" s="145" t="e">
         <f t="shared" si="46"/>
@@ -20879,7 +20859,7 @@
       </c>
       <c r="H117" s="158" t="e">
         <f>INTERCEPT(T123:T134,S123:S134)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O117" s="152"/>
     </row>
@@ -20910,7 +20890,7 @@
       </c>
       <c r="H118" s="162" t="e">
         <f>INTERCEPT(S123:S134,T123:T134)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O118" s="152"/>
     </row>
@@ -20953,22 +20933,22 @@
         <v>149</v>
       </c>
       <c r="J121" s="169"/>
-      <c r="K121" s="458" t="s">
+      <c r="K121" s="464" t="s">
         <v>150</v>
       </c>
-      <c r="L121" s="458" t="s">
+      <c r="L121" s="464" t="s">
         <v>151</v>
       </c>
-      <c r="M121" s="458" t="s">
+      <c r="M121" s="464" t="s">
         <v>152</v>
       </c>
-      <c r="N121" s="458" t="s">
+      <c r="N121" s="464" t="s">
         <v>153</v>
       </c>
-      <c r="O121" s="458" t="s">
+      <c r="O121" s="464" t="s">
         <v>154</v>
       </c>
-      <c r="P121" s="458" t="s">
+      <c r="P121" s="464" t="s">
         <v>155</v>
       </c>
       <c r="R121" s="459" t="s">
@@ -21000,20 +20980,20 @@
       <c r="H122" s="462"/>
       <c r="I122" s="463"/>
       <c r="J122" s="169"/>
-      <c r="K122" s="458"/>
-      <c r="L122" s="458" t="s">
+      <c r="K122" s="464"/>
+      <c r="L122" s="464" t="s">
         <v>151</v>
       </c>
-      <c r="M122" s="458" t="s">
+      <c r="M122" s="464" t="s">
         <v>152</v>
       </c>
-      <c r="N122" s="458" t="s">
+      <c r="N122" s="464" t="s">
         <v>153</v>
       </c>
-      <c r="O122" s="458" t="s">
+      <c r="O122" s="464" t="s">
         <v>154</v>
       </c>
-      <c r="P122" s="458" t="s">
+      <c r="P122" s="464" t="s">
         <v>155</v>
       </c>
       <c r="R122" s="175"/>
@@ -21049,18 +21029,18 @@
       <c r="H123" s="462"/>
       <c r="I123" s="463"/>
       <c r="J123" s="169"/>
-      <c r="K123" s="458"/>
-      <c r="L123" s="458"/>
-      <c r="M123" s="458"/>
-      <c r="N123" s="458"/>
-      <c r="O123" s="458"/>
-      <c r="P123" s="458"/>
+      <c r="K123" s="464"/>
+      <c r="L123" s="464"/>
+      <c r="M123" s="464"/>
+      <c r="N123" s="464"/>
+      <c r="O123" s="464"/>
+      <c r="P123" s="464"/>
       <c r="R123" s="182" t="s">
         <v>162</v>
       </c>
       <c r="S123" s="183" t="e">
         <f t="shared" ref="S123:S128" si="47">E124</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T123" s="184">
         <f>SetPnt_N_0</f>
@@ -21074,26 +21054,26 @@
       </c>
       <c r="B124" s="248" t="e">
         <f>$I$72</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C124" s="248" t="e">
         <f>I79</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D124" s="248" t="e">
         <f>I86</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E124" s="248" t="e">
         <f t="shared" ref="E124:E129" si="48">I96</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F124" s="187" t="s">
         <v>163</v>
       </c>
       <c r="G124" s="248" t="e">
         <f t="shared" ref="G124:G129" si="49">I107</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H124" s="188" t="e">
         <f>$B$118*A124^2 + $C$118*A124+$D$118</f>
@@ -21106,19 +21086,19 @@
       <c r="J124" s="188"/>
       <c r="K124" s="188" t="e">
         <f t="shared" ref="K124:K129" si="51">AVERAGE(E124:G124)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L124" s="188" t="e">
         <f>ABS(E124-G124)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M124" s="188" t="e">
         <f>SQRT((E124-K124)^2+(G124-K124)^2)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N124" s="188" t="e">
         <f t="shared" ref="N124:N129" si="52">(ABS(E124-F124) )</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O124" s="188" t="e">
         <f>I124-K124</f>
@@ -21131,7 +21111,7 @@
       <c r="R124" s="182"/>
       <c r="S124" s="183" t="e">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T124" s="189">
         <f>SetPnt_N_1</f>
@@ -21154,14 +21134,14 @@
       </c>
       <c r="E125" s="248" t="e">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F125" s="187" t="s">
         <v>163</v>
       </c>
       <c r="G125" s="248" t="e">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H125" s="188" t="e">
         <f t="shared" ref="H125:H129" si="54">$B$118*A125^2 + $C$118*A125+$D$118</f>
@@ -21174,19 +21154,19 @@
       <c r="J125" s="188"/>
       <c r="K125" s="188" t="e">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L125" s="188" t="e">
         <f t="shared" ref="L125:L129" si="55">ABS(E125-G125)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M125" s="188" t="e">
         <f t="shared" ref="M125:M129" si="56">SQRT((E125-K125)^2+(G125-K125)^2)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N125" s="188" t="e">
         <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O125" s="188" t="e">
         <f>H125-K125</f>
@@ -21199,7 +21179,7 @@
       <c r="R125" s="182"/>
       <c r="S125" s="183" t="e">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T125" s="189">
         <f>SetPnt_N_2</f>
@@ -21222,14 +21202,14 @@
       </c>
       <c r="E126" s="248" t="e">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F126" s="187" t="s">
         <v>163</v>
       </c>
       <c r="G126" s="248" t="e">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H126" s="188" t="e">
         <f t="shared" si="54"/>
@@ -21242,19 +21222,19 @@
       <c r="J126" s="188"/>
       <c r="K126" s="188" t="e">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L126" s="188" t="e">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M126" s="188" t="e">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N126" s="188" t="e">
         <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O126" s="188" t="e">
         <f>H126-K126</f>
@@ -21267,7 +21247,7 @@
       <c r="R126" s="182"/>
       <c r="S126" s="183" t="e">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T126" s="189">
         <f>SetPnt_N_3</f>
@@ -21290,14 +21270,14 @@
       </c>
       <c r="E127" s="248" t="e">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F127" s="187" t="s">
         <v>163</v>
       </c>
       <c r="G127" s="248" t="e">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H127" s="188" t="e">
         <f t="shared" si="54"/>
@@ -21310,19 +21290,19 @@
       <c r="J127" s="188"/>
       <c r="K127" s="188" t="e">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L127" s="188" t="e">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M127" s="188" t="e">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N127" s="188" t="e">
         <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O127" s="188" t="e">
         <f>H127-K127</f>
@@ -21335,7 +21315,7 @@
       <c r="R127" s="182"/>
       <c r="S127" s="183" t="e">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T127" s="189">
         <f>SetPnt_N_4</f>
@@ -21358,14 +21338,14 @@
       </c>
       <c r="E128" s="248" t="e">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F128" s="187" t="s">
         <v>163</v>
       </c>
       <c r="G128" s="248" t="e">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H128" s="188" t="e">
         <f t="shared" si="54"/>
@@ -21378,19 +21358,19 @@
       <c r="J128" s="188"/>
       <c r="K128" s="188" t="e">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L128" s="188" t="e">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M128" s="188" t="e">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N128" s="188" t="e">
         <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O128" s="188" t="e">
         <f>H128-K128</f>
@@ -21403,7 +21383,7 @@
       <c r="R128" s="192"/>
       <c r="S128" s="193" t="e">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T128" s="189">
         <f>SetPnt_N_5</f>
@@ -21415,28 +21395,28 @@
         <f>SetPnt_N_5</f>
         <v>-1000</v>
       </c>
-      <c r="B129" s="248">
+      <c r="B129" s="248" t="e">
         <f>I73</f>
-        <v>0.49270773034612203</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C129" s="248" t="e">
         <f>I80</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D129" s="248" t="e">
         <f>I87</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E129" s="248" t="e">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F129" s="187" t="s">
         <v>163</v>
       </c>
       <c r="G129" s="248" t="e">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H129" s="188" t="e">
         <f t="shared" si="54"/>
@@ -21449,19 +21429,19 @@
       <c r="J129" s="188"/>
       <c r="K129" s="188" t="e">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L129" s="188" t="e">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M129" s="188" t="e">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N129" s="188" t="e">
         <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O129" s="188" t="e">
         <f>H129-K129</f>
@@ -21476,7 +21456,7 @@
       </c>
       <c r="S129" s="183" t="e">
         <f t="shared" ref="S129:S134" si="57">G124</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T129" s="184">
         <f>SetPnt_N_0</f>
@@ -21488,7 +21468,7 @@
       <c r="R130" s="195"/>
       <c r="S130" s="183" t="e">
         <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T130" s="189">
         <f>SetPnt_N_1</f>
@@ -21503,7 +21483,7 @@
       <c r="R131" s="195"/>
       <c r="S131" s="183" t="e">
         <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T131" s="189">
         <f>SetPnt_N_2</f>
@@ -21550,7 +21530,7 @@
       <c r="R132" s="110"/>
       <c r="S132" s="183" t="e">
         <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T132" s="189">
         <f>SetPnt_N_3</f>
@@ -21564,11 +21544,11 @@
       </c>
       <c r="B133" s="199" t="e">
         <f t="shared" ref="B133:B138" si="58">L124*100 / (SQRT(2)*K124)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C133" s="199" t="e">
         <f t="shared" ref="C133:C138" si="59">M124*100 / (SQRT(2)*K124)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D133" s="199">
         <v>0.46899999999999997</v>
@@ -21579,11 +21559,11 @@
       </c>
       <c r="F133" s="199" t="e">
         <f t="shared" ref="F133:F138" si="61">SQRT((B133^2 + C133^2+D133^2+E133^2))</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G133" s="400" t="e">
         <f t="shared" ref="G133:G138" si="62">F133*2</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H133" s="201" t="e">
         <f t="shared" ref="H133:H138" si="63">ABS(P124)*100 / (SQRT(6)*H124)</f>
@@ -21591,11 +21571,11 @@
       </c>
       <c r="I133" s="199" t="e">
         <f t="shared" ref="I133:I138" si="64">SQRT((B133^2 + C133^2+H133^2+D133^2))</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J133" s="199" t="e">
         <f t="shared" ref="J133:J138" si="65">I133*2</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M133" s="152"/>
       <c r="N133" s="202">
@@ -21605,7 +21585,7 @@
       <c r="R133" s="110"/>
       <c r="S133" s="183" t="e">
         <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T133" s="189">
         <f>SetPnt_N_4</f>
@@ -21619,11 +21599,11 @@
       </c>
       <c r="B134" s="199" t="e">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C134" s="199" t="e">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D134" s="199">
         <v>0.109</v>
@@ -21634,11 +21614,11 @@
       </c>
       <c r="F134" s="199" t="e">
         <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G134" s="400" t="e">
         <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H134" s="201" t="e">
         <f t="shared" si="63"/>
@@ -21646,11 +21626,11 @@
       </c>
       <c r="I134" s="199" t="e">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J134" s="203" t="e">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M134" s="152"/>
       <c r="N134" s="202">
@@ -21660,7 +21640,7 @@
       <c r="R134" s="110"/>
       <c r="S134" s="183" t="e">
         <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T134" s="189">
         <f>SetPnt_N_5</f>
@@ -21674,11 +21654,11 @@
       </c>
       <c r="B135" s="199" t="e">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C135" s="199" t="e">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D135" s="199">
         <v>0.109</v>
@@ -21689,11 +21669,11 @@
       </c>
       <c r="F135" s="199" t="e">
         <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G135" s="400" t="e">
         <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H135" s="201" t="e">
         <f t="shared" si="63"/>
@@ -21701,11 +21681,11 @@
       </c>
       <c r="I135" s="199" t="e">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J135" s="203" t="e">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M135" s="152"/>
       <c r="N135" s="202">
@@ -21720,11 +21700,11 @@
       </c>
       <c r="B136" s="199" t="e">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C136" s="199" t="e">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D136" s="199">
         <v>0.109</v>
@@ -21735,11 +21715,11 @@
       </c>
       <c r="F136" s="199" t="e">
         <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G136" s="400" t="e">
         <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H136" s="201" t="e">
         <f t="shared" si="63"/>
@@ -21747,11 +21727,11 @@
       </c>
       <c r="I136" s="199" t="e">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J136" s="203" t="e">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M136" s="152"/>
       <c r="N136" s="202">
@@ -21766,11 +21746,11 @@
       </c>
       <c r="B137" s="199" t="e">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C137" s="199" t="e">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D137" s="199">
         <v>0.108</v>
@@ -21781,11 +21761,11 @@
       </c>
       <c r="F137" s="199" t="e">
         <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G137" s="400" t="e">
         <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H137" s="201" t="e">
         <f t="shared" si="63"/>
@@ -21793,11 +21773,11 @@
       </c>
       <c r="I137" s="199" t="e">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J137" s="203" t="e">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M137" s="152"/>
       <c r="N137" s="202">
@@ -21812,11 +21792,11 @@
       </c>
       <c r="B138" s="199" t="e">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C138" s="199" t="e">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D138" s="199">
         <v>9.8000000000000004E-2</v>
@@ -21827,11 +21807,11 @@
       </c>
       <c r="F138" s="199" t="e">
         <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G138" s="400" t="e">
         <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H138" s="201" t="e">
         <f t="shared" si="63"/>
@@ -21839,11 +21819,11 @@
       </c>
       <c r="I138" s="199" t="e">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J138" s="203" t="e">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M138" s="152"/>
       <c r="N138" s="202">
@@ -22012,10 +21992,10 @@
         <v>157</v>
       </c>
       <c r="H155" s="227"/>
-      <c r="I155" s="469" t="s">
+      <c r="I155" s="456" t="s">
         <v>165</v>
       </c>
-      <c r="J155" s="470" t="s">
+      <c r="J155" s="457" t="s">
         <v>185</v>
       </c>
     </row>
@@ -22039,8 +22019,8 @@
         <v>186</v>
       </c>
       <c r="H156" s="231"/>
-      <c r="I156" s="469"/>
-      <c r="J156" s="470"/>
+      <c r="I156" s="456"/>
+      <c r="J156" s="457"/>
     </row>
     <row r="157" spans="2:10" outlineLevel="1">
       <c r="B157" s="232">
@@ -22049,23 +22029,23 @@
       </c>
       <c r="C157" s="233" t="e">
         <f>B124*1000</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D157" s="233" t="e">
         <f>C124*1000</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E157" s="233" t="e">
         <f>D124*1000</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F157" s="233" t="e">
         <f>E124*1000</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G157" s="234" t="e">
         <f t="shared" ref="G157:G162" si="66">G124*1000</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H157" s="235"/>
       <c r="I157" s="236">
@@ -22074,7 +22054,7 @@
       </c>
       <c r="J157" s="237" t="e">
         <f>J134</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="158" spans="2:10" outlineLevel="1">
@@ -22096,11 +22076,11 @@
       </c>
       <c r="F158" s="239" t="e">
         <f>E125*1000</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G158" s="240" t="e">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H158" s="235"/>
       <c r="I158" s="236">
@@ -22109,7 +22089,7 @@
       </c>
       <c r="J158" s="237" t="e">
         <f>J135</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="159" spans="2:10" outlineLevel="1">
@@ -22131,11 +22111,11 @@
       </c>
       <c r="F159" s="239" t="e">
         <f>E126*1000</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G159" s="240" t="e">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H159" s="235"/>
       <c r="I159" s="236">
@@ -22144,7 +22124,7 @@
       </c>
       <c r="J159" s="237" t="e">
         <f>J136</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="160" spans="2:10" outlineLevel="1">
@@ -22166,11 +22146,11 @@
       </c>
       <c r="F160" s="239" t="e">
         <f>E127*1000</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G160" s="240" t="e">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H160" s="235"/>
       <c r="I160" s="236">
@@ -22179,7 +22159,7 @@
       </c>
       <c r="J160" s="237" t="e">
         <f>J137</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="161" spans="1:24" ht="15" outlineLevel="1" thickBot="1">
@@ -22201,11 +22181,11 @@
       </c>
       <c r="F161" s="239" t="e">
         <f>E128*1000</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G161" s="240" t="e">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H161" s="235"/>
       <c r="I161" s="241">
@@ -22214,7 +22194,7 @@
       </c>
       <c r="J161" s="242" t="e">
         <f>J138</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="162" spans="1:24" ht="15" outlineLevel="1" thickBot="1">
@@ -22222,25 +22202,25 @@
         <f>SetPnt_N_5</f>
         <v>-1000</v>
       </c>
-      <c r="C162" s="243">
+      <c r="C162" s="243" t="e">
         <f>B129*1000</f>
-        <v>492.70773034612205</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D162" s="243" t="e">
         <f>C129*1000</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E162" s="243" t="e">
         <f>D129*1000</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F162" s="243" t="e">
         <f>E129*1000</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G162" s="244" t="e">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H162" s="235"/>
       <c r="I162" s="245"/>
@@ -22404,22 +22384,22 @@
         <v>149</v>
       </c>
       <c r="J172" s="169"/>
-      <c r="K172" s="458" t="s">
+      <c r="K172" s="464" t="s">
         <v>150</v>
       </c>
-      <c r="L172" s="458" t="s">
+      <c r="L172" s="464" t="s">
         <v>151</v>
       </c>
-      <c r="M172" s="458" t="s">
+      <c r="M172" s="464" t="s">
         <v>152</v>
       </c>
-      <c r="N172" s="458" t="s">
+      <c r="N172" s="464" t="s">
         <v>153</v>
       </c>
-      <c r="O172" s="458" t="s">
+      <c r="O172" s="464" t="s">
         <v>154</v>
       </c>
-      <c r="P172" s="458" t="s">
+      <c r="P172" s="464" t="s">
         <v>155</v>
       </c>
       <c r="R172" s="459" t="s">
@@ -22451,20 +22431,20 @@
       <c r="H173" s="462"/>
       <c r="I173" s="463"/>
       <c r="J173" s="169"/>
-      <c r="K173" s="458"/>
-      <c r="L173" s="458" t="s">
+      <c r="K173" s="464"/>
+      <c r="L173" s="464" t="s">
         <v>151</v>
       </c>
-      <c r="M173" s="458" t="s">
+      <c r="M173" s="464" t="s">
         <v>152</v>
       </c>
-      <c r="N173" s="458" t="s">
+      <c r="N173" s="464" t="s">
         <v>153</v>
       </c>
-      <c r="O173" s="458" t="s">
+      <c r="O173" s="464" t="s">
         <v>154</v>
       </c>
-      <c r="P173" s="458" t="s">
+      <c r="P173" s="464" t="s">
         <v>155</v>
       </c>
       <c r="R173" s="175"/>
@@ -22500,18 +22480,18 @@
       <c r="H174" s="462"/>
       <c r="I174" s="463"/>
       <c r="J174" s="169"/>
-      <c r="K174" s="458"/>
-      <c r="L174" s="458"/>
-      <c r="M174" s="458"/>
-      <c r="N174" s="458"/>
-      <c r="O174" s="458"/>
-      <c r="P174" s="458"/>
+      <c r="K174" s="464"/>
+      <c r="L174" s="464"/>
+      <c r="M174" s="464"/>
+      <c r="N174" s="464"/>
+      <c r="O174" s="464"/>
+      <c r="P174" s="464"/>
       <c r="R174" s="182" t="s">
         <v>162</v>
       </c>
       <c r="S174" s="183" t="e">
         <f t="shared" ref="S174:S179" si="68">E175</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T174" s="184">
         <f>SetPnt_N_0</f>
@@ -22525,19 +22505,19 @@
       </c>
       <c r="B175" s="248" t="e">
         <f t="shared" ref="B175:G175" si="69">B124</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C175" s="248" t="e">
         <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D175" s="248" t="e">
         <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E175" s="248" t="e">
         <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F175" s="187" t="str">
         <f t="shared" si="69"/>
@@ -22545,7 +22525,7 @@
       </c>
       <c r="G175" s="248" t="e">
         <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H175" s="188" t="e">
         <f>$B$169*A175^2 + $C$169*A175+$D$169</f>
@@ -22558,19 +22538,19 @@
       <c r="J175" s="188"/>
       <c r="K175" s="188" t="e">
         <f t="shared" ref="K175:K180" si="70">AVERAGE(E175:G175)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L175" s="188" t="e">
         <f>ABS(E175-G175)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M175" s="188" t="e">
         <f>SQRT((E175-K175)^2+(G175-K175)^2)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N175" s="188" t="e">
         <f>(ABS(E175-F175) )</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O175" s="188" t="e">
         <f>I175-K175</f>
@@ -22583,7 +22563,7 @@
       <c r="R175" s="182"/>
       <c r="S175" s="183" t="e">
         <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T175" s="189">
         <f>SetPnt_N_1</f>
@@ -22609,7 +22589,7 @@
       </c>
       <c r="E176" s="248" t="e">
         <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F176" s="187" t="str">
         <f t="shared" si="72"/>
@@ -22617,7 +22597,7 @@
       </c>
       <c r="G176" s="248" t="e">
         <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H176" s="188" t="e">
         <f t="shared" ref="H176:H180" si="73">$B$169*A176^2 + $C$169*A176+$D$169</f>
@@ -22630,19 +22610,19 @@
       <c r="J176" s="188"/>
       <c r="K176" s="188" t="e">
         <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L176" s="188" t="e">
         <f t="shared" ref="L176:L180" si="75">ABS(E176-G176)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M176" s="188" t="e">
         <f t="shared" ref="M176:M180" si="76">SQRT((E176-K176)^2+(G176-K176)^2)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N176" s="188" t="e">
         <f t="shared" ref="N176:N180" si="77">(ABS(E176-F176) )</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O176" s="188" t="e">
         <f t="shared" ref="O176:O180" si="78">I176-K176</f>
@@ -22655,7 +22635,7 @@
       <c r="R176" s="182"/>
       <c r="S176" s="183" t="e">
         <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T176" s="189">
         <f>SetPnt_N_2</f>
@@ -22681,7 +22661,7 @@
       </c>
       <c r="E177" s="248" t="e">
         <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F177" s="187" t="str">
         <f t="shared" si="79"/>
@@ -22689,7 +22669,7 @@
       </c>
       <c r="G177" s="248" t="e">
         <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H177" s="188" t="e">
         <f t="shared" si="73"/>
@@ -22702,19 +22682,19 @@
       <c r="J177" s="188"/>
       <c r="K177" s="188" t="e">
         <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L177" s="188" t="e">
         <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M177" s="188" t="e">
         <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N177" s="188" t="e">
         <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O177" s="188" t="e">
         <f t="shared" si="78"/>
@@ -22727,7 +22707,7 @@
       <c r="R177" s="182"/>
       <c r="S177" s="183" t="e">
         <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T177" s="189">
         <f>SetPnt_N_3</f>
@@ -22753,7 +22733,7 @@
       </c>
       <c r="E178" s="248" t="e">
         <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F178" s="187" t="str">
         <f t="shared" si="80"/>
@@ -22761,7 +22741,7 @@
       </c>
       <c r="G178" s="248" t="e">
         <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H178" s="188" t="e">
         <f t="shared" si="73"/>
@@ -22774,19 +22754,19 @@
       <c r="J178" s="188"/>
       <c r="K178" s="188" t="e">
         <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L178" s="188" t="e">
         <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M178" s="188" t="e">
         <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N178" s="188" t="e">
         <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O178" s="188" t="e">
         <f t="shared" si="78"/>
@@ -22799,7 +22779,7 @@
       <c r="R178" s="182"/>
       <c r="S178" s="183" t="e">
         <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T178" s="189">
         <f>SetPnt_N_4</f>
@@ -22825,7 +22805,7 @@
       </c>
       <c r="E179" s="248" t="e">
         <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F179" s="187" t="str">
         <f t="shared" si="81"/>
@@ -22833,7 +22813,7 @@
       </c>
       <c r="G179" s="248" t="e">
         <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H179" s="188" t="e">
         <f t="shared" si="73"/>
@@ -22846,19 +22826,19 @@
       <c r="J179" s="188"/>
       <c r="K179" s="188" t="e">
         <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L179" s="188" t="e">
         <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M179" s="188" t="e">
         <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N179" s="188" t="e">
         <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O179" s="188" t="e">
         <f t="shared" si="78"/>
@@ -22871,7 +22851,7 @@
       <c r="R179" s="192"/>
       <c r="S179" s="193" t="e">
         <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T179" s="189">
         <f>SetPnt_N_5</f>
@@ -22883,21 +22863,21 @@
         <f t="shared" ref="A180:G180" si="82">A129</f>
         <v>-1000</v>
       </c>
-      <c r="B180" s="248">
+      <c r="B180" s="248" t="e">
         <f t="shared" si="82"/>
-        <v>0.49270773034612203</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C180" s="248" t="e">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D180" s="248" t="e">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E180" s="248" t="e">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F180" s="187" t="str">
         <f t="shared" si="82"/>
@@ -22905,7 +22885,7 @@
       </c>
       <c r="G180" s="248" t="e">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H180" s="188" t="e">
         <f t="shared" si="73"/>
@@ -22918,19 +22898,19 @@
       <c r="J180" s="188"/>
       <c r="K180" s="188" t="e">
         <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L180" s="188" t="e">
         <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M180" s="188" t="e">
         <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N180" s="188" t="e">
         <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O180" s="188" t="e">
         <f t="shared" si="78"/>
@@ -22945,7 +22925,7 @@
       </c>
       <c r="S180" s="183" t="e">
         <f t="shared" ref="S180:S185" si="83">G175</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T180" s="184">
         <f>SetPnt_N_0</f>
@@ -22957,7 +22937,7 @@
       <c r="R181" s="195"/>
       <c r="S181" s="183" t="e">
         <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T181" s="189">
         <f>SetPnt_N_1</f>
@@ -22972,7 +22952,7 @@
       <c r="R182" s="195"/>
       <c r="S182" s="183" t="e">
         <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T182" s="189">
         <f>SetPnt_N_2</f>
@@ -23019,7 +22999,7 @@
       <c r="R183" s="110"/>
       <c r="S183" s="183" t="e">
         <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T183" s="189">
         <f>SetPnt_N_3</f>
@@ -23033,11 +23013,11 @@
       </c>
       <c r="B184" s="199" t="e">
         <f t="shared" ref="B184:B189" si="84">L175*100 / (SQRT(2)*K175)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C184" s="199" t="e">
         <f t="shared" ref="C184:C189" si="85">M175*100 / (SQRT(2)*K175)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D184" s="199">
         <v>0.46899999999999997</v>
@@ -23048,11 +23028,11 @@
       </c>
       <c r="F184" s="199" t="e">
         <f t="shared" ref="F184:F189" si="86">SQRT((B184^2 + C184^2+D184^2+E184^2))</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G184" s="400" t="e">
         <f t="shared" ref="G184:G189" si="87">F184*2</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H184" s="201" t="e">
         <f t="shared" ref="H184:H189" si="88">ABS(P175)*100 / (SQRT(6)*H175)</f>
@@ -23060,11 +23040,11 @@
       </c>
       <c r="I184" s="199" t="e">
         <f t="shared" ref="I184:I189" si="89">SQRT((B184^2 + C184^2+H184^2+D184^2))</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J184" s="199" t="e">
         <f t="shared" ref="J184:J189" si="90">I184*2</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M184" s="152"/>
       <c r="N184" s="202">
@@ -23074,7 +23054,7 @@
       <c r="R184" s="110"/>
       <c r="S184" s="183" t="e">
         <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T184" s="189">
         <f>SetPnt_N_4</f>
@@ -23088,11 +23068,11 @@
       </c>
       <c r="B185" s="199" t="e">
         <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C185" s="199" t="e">
         <f t="shared" si="85"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D185" s="199">
         <v>0.109</v>
@@ -23103,11 +23083,11 @@
       </c>
       <c r="F185" s="199" t="e">
         <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G185" s="400" t="e">
         <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H185" s="201" t="e">
         <f t="shared" si="88"/>
@@ -23115,11 +23095,11 @@
       </c>
       <c r="I185" s="199" t="e">
         <f t="shared" si="89"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J185" s="203" t="e">
         <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M185" s="152"/>
       <c r="N185" s="202">
@@ -23129,7 +23109,7 @@
       <c r="R185" s="110"/>
       <c r="S185" s="183" t="e">
         <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T185" s="189">
         <f>SetPnt_N_5</f>
@@ -23143,11 +23123,11 @@
       </c>
       <c r="B186" s="199" t="e">
         <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C186" s="199" t="e">
         <f t="shared" si="85"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D186" s="199">
         <v>0.109</v>
@@ -23158,11 +23138,11 @@
       </c>
       <c r="F186" s="199" t="e">
         <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G186" s="400" t="e">
         <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H186" s="201" t="e">
         <f t="shared" si="88"/>
@@ -23170,11 +23150,11 @@
       </c>
       <c r="I186" s="199" t="e">
         <f t="shared" si="89"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J186" s="203" t="e">
         <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M186" s="152"/>
       <c r="N186" s="202">
@@ -23189,11 +23169,11 @@
       </c>
       <c r="B187" s="199" t="e">
         <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C187" s="199" t="e">
         <f t="shared" si="85"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D187" s="199">
         <v>0.109</v>
@@ -23204,11 +23184,11 @@
       </c>
       <c r="F187" s="199" t="e">
         <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G187" s="400" t="e">
         <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H187" s="201" t="e">
         <f t="shared" si="88"/>
@@ -23216,11 +23196,11 @@
       </c>
       <c r="I187" s="199" t="e">
         <f t="shared" si="89"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J187" s="203" t="e">
         <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M187" s="152"/>
       <c r="N187" s="202">
@@ -23235,11 +23215,11 @@
       </c>
       <c r="B188" s="199" t="e">
         <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C188" s="199" t="e">
         <f t="shared" si="85"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D188" s="199">
         <v>0.108</v>
@@ -23250,11 +23230,11 @@
       </c>
       <c r="F188" s="199" t="e">
         <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G188" s="400" t="e">
         <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H188" s="201" t="e">
         <f t="shared" si="88"/>
@@ -23262,11 +23242,11 @@
       </c>
       <c r="I188" s="199" t="e">
         <f t="shared" si="89"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J188" s="203" t="e">
         <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M188" s="152"/>
       <c r="N188" s="202">
@@ -23281,11 +23261,11 @@
       </c>
       <c r="B189" s="199" t="e">
         <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C189" s="199" t="e">
         <f t="shared" si="85"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D189" s="199">
         <v>9.8000000000000004E-2</v>
@@ -23296,11 +23276,11 @@
       </c>
       <c r="F189" s="199" t="e">
         <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G189" s="400" t="e">
         <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H189" s="201" t="e">
         <f t="shared" si="88"/>
@@ -23308,11 +23288,11 @@
       </c>
       <c r="I189" s="199" t="e">
         <f t="shared" si="89"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J189" s="203" t="e">
         <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M189" s="152"/>
       <c r="N189" s="202">
@@ -23333,10 +23313,10 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="52"/>
-      <c r="C194" s="460" t="s">
+      <c r="C194" s="471" t="s">
         <v>165</v>
       </c>
-      <c r="D194" s="461"/>
+      <c r="D194" s="472"/>
       <c r="E194" s="392">
         <f>A185</f>
         <v>-200</v>
@@ -23360,33 +23340,50 @@
     </row>
     <row r="195" spans="1:9" ht="15" thickBot="1">
       <c r="A195" s="52"/>
-      <c r="C195" s="456" t="s">
+      <c r="C195" s="469" t="s">
         <v>185</v>
       </c>
-      <c r="D195" s="457"/>
+      <c r="D195" s="470"/>
       <c r="E195" s="395" t="e">
         <f>1/100*J185</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F195" s="395" t="e">
         <f>1/100*J186</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G195" s="395" t="e">
         <f>1/100*J187</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H195" s="395" t="e">
         <f>1/100*J188</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I195" s="396" t="e">
         <f>1/100*J189</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="O172:O174"/>
+    <mergeCell ref="P172:P174"/>
+    <mergeCell ref="R172:T172"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="I172:I174"/>
+    <mergeCell ref="K172:K174"/>
+    <mergeCell ref="L172:L174"/>
+    <mergeCell ref="M172:M174"/>
+    <mergeCell ref="N172:N174"/>
+    <mergeCell ref="H172:H174"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:J38"/>
     <mergeCell ref="I155:I156"/>
     <mergeCell ref="J155:J156"/>
     <mergeCell ref="L38:O38"/>
@@ -23402,23 +23399,6 @@
     <mergeCell ref="O121:O123"/>
     <mergeCell ref="P121:P123"/>
     <mergeCell ref="R121:T121"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="O172:O174"/>
-    <mergeCell ref="P172:P174"/>
-    <mergeCell ref="R172:T172"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="I172:I174"/>
-    <mergeCell ref="K172:K174"/>
-    <mergeCell ref="L172:L174"/>
-    <mergeCell ref="M172:M174"/>
-    <mergeCell ref="N172:N174"/>
-    <mergeCell ref="H172:H174"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -23928,9 +23908,9 @@
         <f>'3°Q - Negativo'!R40</f>
         <v>0</v>
       </c>
-      <c r="D15" s="285">
+      <c r="D15" s="285" t="e">
         <f>'3°Q - Negativo'!S40</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F15" s="282"/>
       <c r="G15" s="286"/>
@@ -23953,9 +23933,9 @@
         <f>'3°Q - Negativo'!R41</f>
         <v>0</v>
       </c>
-      <c r="D16" s="285">
+      <c r="D16" s="285" t="e">
         <f>'3°Q - Negativo'!S41</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F16" s="282"/>
       <c r="G16" s="108" t="str">
@@ -23998,9 +23978,9 @@
         <f>'3°Q - Negativo'!R42</f>
         <v>0</v>
       </c>
-      <c r="D17" s="285">
+      <c r="D17" s="285" t="e">
         <f>'3°Q - Negativo'!S42</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F17" s="282" t="s">
         <v>107</v>
@@ -24050,9 +24030,9 @@
         <f>'3°Q - Negativo'!R43</f>
         <v>0</v>
       </c>
-      <c r="D18" s="285">
+      <c r="D18" s="285" t="e">
         <f>'3°Q - Negativo'!S43</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F18" s="290" t="s">
         <v>111</v>
@@ -24102,9 +24082,9 @@
         <f>'3°Q - Negativo'!R44</f>
         <v>0</v>
       </c>
-      <c r="D19" s="285">
+      <c r="D19" s="285" t="e">
         <f>'3°Q - Negativo'!S44</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="21.6" thickBot="1">
@@ -24117,9 +24097,9 @@
         <f>'3°Q - Negativo'!R45</f>
         <v>0</v>
       </c>
-      <c r="D20" s="285">
+      <c r="D20" s="285" t="e">
         <f>'3°Q - Negativo'!S45</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="294" t="s">
         <v>189</v>
@@ -24139,9 +24119,9 @@
         <f>'3°Q - Negativo'!R46</f>
         <v>0</v>
       </c>
-      <c r="D21" s="285">
+      <c r="D21" s="285" t="e">
         <f>'3°Q - Negativo'!S46</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="46"/>
       <c r="G21" s="108" t="str">
@@ -24171,9 +24151,9 @@
         <f>'3°Q - Negativo'!R47</f>
         <v>0</v>
       </c>
-      <c r="D22" s="285">
+      <c r="D22" s="285" t="e">
         <f>'3°Q - Negativo'!S47</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="298" t="s">
         <v>104</v>
@@ -24206,9 +24186,9 @@
         <f>'3°Q - Negativo'!R48</f>
         <v>0</v>
       </c>
-      <c r="D23" s="285">
+      <c r="D23" s="285" t="e">
         <f>'3°Q - Negativo'!S48</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="298" t="s">
         <v>106</v>
@@ -24237,9 +24217,9 @@
         <f>'3°Q - Negativo'!R49</f>
         <v>0</v>
       </c>
-      <c r="D24" s="285">
+      <c r="D24" s="285" t="e">
         <f>'3°Q - Negativo'!S49</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F24" s="298"/>
       <c r="G24" s="299"/>
@@ -24257,9 +24237,9 @@
         <f>'3°Q - Negativo'!R50</f>
         <v>0</v>
       </c>
-      <c r="D25" s="285">
+      <c r="D25" s="285" t="e">
         <f>'3°Q - Negativo'!S50</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F25" s="298"/>
       <c r="G25" s="108" t="str">
@@ -24289,9 +24269,9 @@
         <f>'3°Q - Negativo'!R51</f>
         <v>0</v>
       </c>
-      <c r="D26" s="285">
+      <c r="D26" s="285" t="e">
         <f>'3°Q - Negativo'!S51</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F26" s="298" t="s">
         <v>107</v>
@@ -24300,17 +24280,17 @@
         <f>'3°Q - Negativo'!B63</f>
         <v>Nm/V</v>
       </c>
-      <c r="H26" s="116">
+      <c r="H26" s="116" t="e">
         <f>'3°Q - Negativo'!C63</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="116">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" s="116" t="e">
         <f>'3°Q - Negativo'!D63</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="301">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J26" s="301" t="e">
         <f>'3°Q - Negativo'!E63</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" thickBot="1">
@@ -24321,17 +24301,17 @@
         <f>'3°Q - Negativo'!B64</f>
         <v>V/Nm</v>
       </c>
-      <c r="H27" s="304">
+      <c r="H27" s="304" t="e">
         <f>'3°Q - Negativo'!C64</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="304">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I27" s="304" t="e">
         <f>'3°Q - Negativo'!D64</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="305">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J27" s="305" t="e">
         <f>'3°Q - Negativo'!E64</f>
-        <v>7.7850000000000197E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" thickBot="1"/>
@@ -24514,19 +24494,19 @@
     </row>
     <row r="6" spans="3:13" ht="15.75" customHeight="1"/>
     <row r="7" spans="3:13" ht="19.5" customHeight="1">
-      <c r="C7" s="482" t="str">
+      <c r="C7" s="499" t="str">
         <f>CONCATENATE("Report taratura"," - ",'Istruzioni Uso'!$B$67," - ",'Istruzioni Uso'!$B$68)</f>
         <v xml:space="preserve">Report taratura - Clutch-Shaft Hewland Toyota Yaris - </v>
       </c>
-      <c r="D7" s="482"/>
-      <c r="E7" s="482"/>
-      <c r="F7" s="482"/>
-      <c r="G7" s="482"/>
-      <c r="H7" s="482"/>
-      <c r="I7" s="482"/>
-      <c r="J7" s="482"/>
-      <c r="K7" s="482"/>
-      <c r="L7" s="482"/>
+      <c r="D7" s="499"/>
+      <c r="E7" s="499"/>
+      <c r="F7" s="499"/>
+      <c r="G7" s="499"/>
+      <c r="H7" s="499"/>
+      <c r="I7" s="499"/>
+      <c r="J7" s="499"/>
+      <c r="K7" s="499"/>
+      <c r="L7" s="499"/>
     </row>
     <row r="8" spans="3:13" ht="16.5" customHeight="1"/>
     <row r="9" spans="3:13" ht="15" customHeight="1">
@@ -24535,17 +24515,17 @@
       </c>
       <c r="D9" s="308"/>
       <c r="E9" s="58"/>
-      <c r="F9" s="483">
+      <c r="F9" s="500">
         <f>'Istruzioni Uso'!$B$63</f>
         <v>45476</v>
       </c>
-      <c r="G9" s="483"/>
-      <c r="H9" s="483"/>
-      <c r="I9" s="483"/>
-      <c r="J9" s="483"/>
-      <c r="K9" s="483"/>
-      <c r="L9" s="483"/>
-      <c r="M9" s="483"/>
+      <c r="G9" s="500"/>
+      <c r="H9" s="500"/>
+      <c r="I9" s="500"/>
+      <c r="J9" s="500"/>
+      <c r="K9" s="500"/>
+      <c r="L9" s="500"/>
+      <c r="M9" s="500"/>
     </row>
     <row r="10" spans="3:13" ht="15" customHeight="1">
       <c r="C10" s="309" t="s">
@@ -24553,17 +24533,17 @@
       </c>
       <c r="D10" s="309"/>
       <c r="E10" s="310"/>
-      <c r="F10" s="484" t="str">
+      <c r="F10" s="501" t="str">
         <f>'Istruzioni Uso'!$B$64</f>
         <v>E-ELE 2411</v>
       </c>
-      <c r="G10" s="484"/>
-      <c r="H10" s="484"/>
-      <c r="I10" s="484"/>
-      <c r="J10" s="484"/>
-      <c r="K10" s="484"/>
-      <c r="L10" s="484"/>
-      <c r="M10" s="484"/>
+      <c r="G10" s="501"/>
+      <c r="H10" s="501"/>
+      <c r="I10" s="501"/>
+      <c r="J10" s="501"/>
+      <c r="K10" s="501"/>
+      <c r="L10" s="501"/>
+      <c r="M10" s="501"/>
     </row>
     <row r="11" spans="3:13" ht="15" customHeight="1">
       <c r="C11" s="308" t="s">
@@ -24571,17 +24551,17 @@
       </c>
       <c r="D11" s="308"/>
       <c r="E11" s="58"/>
-      <c r="F11" s="485" t="str">
+      <c r="F11" s="502" t="str">
         <f>'Istruzioni Uso'!$B$65</f>
         <v>Dallara</v>
       </c>
-      <c r="G11" s="485"/>
-      <c r="H11" s="485"/>
-      <c r="I11" s="485"/>
-      <c r="J11" s="485"/>
-      <c r="K11" s="485"/>
-      <c r="L11" s="485"/>
-      <c r="M11" s="485"/>
+      <c r="G11" s="502"/>
+      <c r="H11" s="502"/>
+      <c r="I11" s="502"/>
+      <c r="J11" s="502"/>
+      <c r="K11" s="502"/>
+      <c r="L11" s="502"/>
+      <c r="M11" s="502"/>
     </row>
     <row r="12" spans="3:13" ht="15" customHeight="1">
       <c r="C12" s="309" t="s">
@@ -24589,17 +24569,17 @@
       </c>
       <c r="D12" s="309"/>
       <c r="E12" s="310"/>
-      <c r="F12" s="484" t="str">
+      <c r="F12" s="501" t="str">
         <f>'Istruzioni Uso'!B69</f>
         <v>-</v>
       </c>
-      <c r="G12" s="484"/>
-      <c r="H12" s="484"/>
-      <c r="I12" s="484"/>
-      <c r="J12" s="484"/>
-      <c r="K12" s="484"/>
-      <c r="L12" s="484"/>
-      <c r="M12" s="484"/>
+      <c r="G12" s="501"/>
+      <c r="H12" s="501"/>
+      <c r="I12" s="501"/>
+      <c r="J12" s="501"/>
+      <c r="K12" s="501"/>
+      <c r="L12" s="501"/>
+      <c r="M12" s="501"/>
     </row>
     <row r="13" spans="3:13" ht="15" customHeight="1">
       <c r="C13" s="308" t="s">
@@ -24607,17 +24587,17 @@
       </c>
       <c r="D13" s="308"/>
       <c r="E13" s="58"/>
-      <c r="F13" s="485" t="str">
+      <c r="F13" s="502" t="str">
         <f>'Istruzioni Uso'!B67</f>
         <v>Clutch-Shaft Hewland Toyota Yaris</v>
       </c>
-      <c r="G13" s="485"/>
-      <c r="H13" s="485"/>
-      <c r="I13" s="485"/>
-      <c r="J13" s="485"/>
-      <c r="K13" s="485"/>
-      <c r="L13" s="485"/>
-      <c r="M13" s="485"/>
+      <c r="G13" s="502"/>
+      <c r="H13" s="502"/>
+      <c r="I13" s="502"/>
+      <c r="J13" s="502"/>
+      <c r="K13" s="502"/>
+      <c r="L13" s="502"/>
+      <c r="M13" s="502"/>
     </row>
     <row r="14" spans="3:13" ht="15" customHeight="1">
       <c r="C14" s="309" t="s">
@@ -24625,17 +24605,17 @@
       </c>
       <c r="D14" s="309"/>
       <c r="E14" s="309"/>
-      <c r="F14" s="484">
+      <c r="F14" s="501">
         <f>'Istruzioni Uso'!B68</f>
         <v>0</v>
       </c>
-      <c r="G14" s="484"/>
-      <c r="H14" s="484"/>
-      <c r="I14" s="484"/>
-      <c r="J14" s="484"/>
-      <c r="K14" s="484"/>
-      <c r="L14" s="484"/>
-      <c r="M14" s="484"/>
+      <c r="G14" s="501"/>
+      <c r="H14" s="501"/>
+      <c r="I14" s="501"/>
+      <c r="J14" s="501"/>
+      <c r="K14" s="501"/>
+      <c r="L14" s="501"/>
+      <c r="M14" s="501"/>
     </row>
     <row r="15" spans="3:13" ht="15" customHeight="1">
       <c r="C15" s="308" t="s">
@@ -24643,17 +24623,17 @@
       </c>
       <c r="D15" s="308"/>
       <c r="E15" s="308"/>
-      <c r="F15" s="485" t="str">
+      <c r="F15" s="502" t="str">
         <f>'Istruzioni Uso'!B70</f>
         <v>-</v>
       </c>
-      <c r="G15" s="485"/>
-      <c r="H15" s="485"/>
-      <c r="I15" s="485"/>
-      <c r="J15" s="485"/>
-      <c r="K15" s="485"/>
-      <c r="L15" s="485"/>
-      <c r="M15" s="485"/>
+      <c r="G15" s="502"/>
+      <c r="H15" s="502"/>
+      <c r="I15" s="502"/>
+      <c r="J15" s="502"/>
+      <c r="K15" s="502"/>
+      <c r="L15" s="502"/>
+      <c r="M15" s="502"/>
     </row>
     <row r="16" spans="3:13" ht="15" customHeight="1">
       <c r="C16" s="309" t="s">
@@ -24661,49 +24641,49 @@
       </c>
       <c r="D16" s="309"/>
       <c r="E16" s="309"/>
-      <c r="F16" s="484" t="str">
+      <c r="F16" s="501" t="str">
         <f>'Istruzioni Uso'!$B$66</f>
         <v>E03F008A</v>
       </c>
-      <c r="G16" s="484"/>
-      <c r="H16" s="484"/>
-      <c r="I16" s="484"/>
-      <c r="J16" s="484"/>
-      <c r="K16" s="484"/>
-      <c r="L16" s="484"/>
-      <c r="M16" s="484"/>
+      <c r="G16" s="501"/>
+      <c r="H16" s="501"/>
+      <c r="I16" s="501"/>
+      <c r="J16" s="501"/>
+      <c r="K16" s="501"/>
+      <c r="L16" s="501"/>
+      <c r="M16" s="501"/>
     </row>
     <row r="17" spans="3:18" ht="15" customHeight="1">
       <c r="C17" s="52"/>
       <c r="D17" s="52"/>
       <c r="E17" s="52"/>
-      <c r="P17" s="486" t="s">
+      <c r="P17" s="491" t="s">
         <v>214</v>
       </c>
-      <c r="Q17" s="486"/>
-      <c r="R17" s="486"/>
+      <c r="Q17" s="491"/>
+      <c r="R17" s="491"/>
     </row>
     <row r="18" spans="3:18" ht="15" customHeight="1">
-      <c r="C18" s="487" t="s">
+      <c r="C18" s="490" t="s">
         <v>245</v>
       </c>
-      <c r="D18" s="487"/>
-      <c r="E18" s="487"/>
-      <c r="F18" s="487"/>
-      <c r="G18" s="487"/>
-      <c r="H18" s="487"/>
-      <c r="I18" s="487"/>
-      <c r="J18" s="487"/>
-      <c r="K18" s="487"/>
-      <c r="L18" s="487"/>
-      <c r="P18" s="486"/>
-      <c r="Q18" s="486"/>
-      <c r="R18" s="486"/>
+      <c r="D18" s="490"/>
+      <c r="E18" s="490"/>
+      <c r="F18" s="490"/>
+      <c r="G18" s="490"/>
+      <c r="H18" s="490"/>
+      <c r="I18" s="490"/>
+      <c r="J18" s="490"/>
+      <c r="K18" s="490"/>
+      <c r="L18" s="490"/>
+      <c r="P18" s="491"/>
+      <c r="Q18" s="491"/>
+      <c r="R18" s="491"/>
     </row>
     <row r="19" spans="3:18" ht="12" customHeight="1">
-      <c r="P19" s="486"/>
-      <c r="Q19" s="486"/>
-      <c r="R19" s="486"/>
+      <c r="P19" s="491"/>
+      <c r="Q19" s="491"/>
+      <c r="R19" s="491"/>
     </row>
     <row r="20" spans="3:18">
       <c r="C20" t="s">
@@ -24711,9 +24691,9 @@
       </c>
       <c r="L20" s="58"/>
       <c r="M20" s="58"/>
-      <c r="P20" s="486"/>
-      <c r="Q20" s="486"/>
-      <c r="R20" s="486"/>
+      <c r="P20" s="491"/>
+      <c r="Q20" s="491"/>
+      <c r="R20" s="491"/>
     </row>
     <row r="21" spans="3:18">
       <c r="E21" s="311" t="s">
@@ -24724,18 +24704,18 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="488" t="e">
+      <c r="K21" s="492" t="e">
         <f>CONCATENATE(ROUND('Check Q1 vs Q3 '!$P$13,2),"  ",EUnits,"/V")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="488"/>
-      <c r="M21" s="488"/>
-      <c r="P21" s="489" t="e">
+      <c r="L21" s="492"/>
+      <c r="M21" s="492"/>
+      <c r="P21" s="493" t="e">
         <f>CONCATENATE(ROUND('Check Q1 vs Q3 '!$I$4,3)," ",UUT_EUnits)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q21" s="489"/>
-      <c r="R21" s="489"/>
+      <c r="Q21" s="493"/>
+      <c r="R21" s="493"/>
     </row>
     <row r="22" spans="3:18">
       <c r="E22" s="311" t="s">
@@ -24746,18 +24726,18 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="488" t="e">
+      <c r="K22" s="492" t="e">
         <f>CONCATENATE(ROUND('Check Q1 vs Q3 '!$Q$14,4),"  V")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="488"/>
-      <c r="M22" s="488"/>
-      <c r="P22" s="490" t="e">
+      <c r="L22" s="492"/>
+      <c r="M22" s="492"/>
+      <c r="P22" s="494" t="e">
         <f>CONCATENATE(ROUND('Check Q1 vs Q3 '!$H$4,2)," ",EUnits,"/",UUT_EUnits)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q22" s="490"/>
-      <c r="R22" s="490"/>
+      <c r="Q22" s="494"/>
+      <c r="R22" s="494"/>
     </row>
     <row r="23" spans="3:18" ht="17.25" customHeight="1">
       <c r="L23" s="58"/>
@@ -24787,12 +24767,12 @@
         <v>215</v>
       </c>
       <c r="D27" s="52"/>
-      <c r="K27" s="485" t="str">
+      <c r="K27" s="502" t="str">
         <f>'Istruzioni Uso'!$B$72</f>
         <v>± 500 Nm</v>
       </c>
-      <c r="L27" s="485"/>
-      <c r="M27" s="485"/>
+      <c r="L27" s="502"/>
+      <c r="M27" s="502"/>
     </row>
     <row r="28" spans="3:18" ht="12" customHeight="1">
       <c r="C28" s="52"/>
@@ -24826,10 +24806,10 @@
     </row>
     <row r="32" spans="3:18">
       <c r="C32" s="52"/>
-      <c r="E32" s="460" t="s">
+      <c r="E32" s="471" t="s">
         <v>165</v>
       </c>
-      <c r="F32" s="461"/>
+      <c r="F32" s="472"/>
       <c r="G32" s="392">
         <f>'1°Q - Positivo'!E194</f>
         <v>200</v>
@@ -24855,10 +24835,10 @@
     </row>
     <row r="33" spans="3:13" ht="15" thickBot="1">
       <c r="C33" s="52"/>
-      <c r="E33" s="456" t="s">
+      <c r="E33" s="469" t="s">
         <v>185</v>
       </c>
-      <c r="F33" s="457"/>
+      <c r="F33" s="470"/>
       <c r="G33" s="395" t="e">
         <f>'1°Q - Positivo'!E195</f>
         <v>#VALUE!</v>
@@ -24914,10 +24894,10 @@
     </row>
     <row r="38" spans="3:13">
       <c r="C38" s="52"/>
-      <c r="E38" s="478" t="s">
+      <c r="E38" s="495" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="479"/>
+      <c r="F38" s="496"/>
       <c r="G38" s="394">
         <f>'3°Q - Negativo'!E194</f>
         <v>-200</v>
@@ -24943,29 +24923,29 @@
     </row>
     <row r="39" spans="3:13" ht="15" thickBot="1">
       <c r="C39" s="52"/>
-      <c r="E39" s="480" t="s">
+      <c r="E39" s="497" t="s">
         <v>185</v>
       </c>
-      <c r="F39" s="481"/>
+      <c r="F39" s="498"/>
       <c r="G39" s="397" t="e">
         <f>'3°Q - Negativo'!E195</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H39" s="395" t="e">
         <f>'3°Q - Negativo'!F195</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I39" s="395" t="e">
         <f>'3°Q - Negativo'!G195</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J39" s="395" t="e">
         <f>'3°Q - Negativo'!H195</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K39" s="396" t="e">
         <f>'3°Q - Negativo'!I195</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L39" s="326"/>
       <c r="M39" s="326"/>
@@ -25113,18 +25093,18 @@
       <c r="M62" s="58"/>
     </row>
     <row r="63" spans="3:13" ht="17.25" customHeight="1">
-      <c r="C63" s="487" t="s">
+      <c r="C63" s="490" t="s">
         <v>216</v>
       </c>
-      <c r="D63" s="487"/>
-      <c r="E63" s="487"/>
-      <c r="F63" s="487"/>
-      <c r="G63" s="487"/>
-      <c r="H63" s="487"/>
-      <c r="I63" s="487"/>
-      <c r="J63" s="487"/>
-      <c r="K63" s="487"/>
-      <c r="L63" s="487"/>
+      <c r="D63" s="490"/>
+      <c r="E63" s="490"/>
+      <c r="F63" s="490"/>
+      <c r="G63" s="490"/>
+      <c r="H63" s="490"/>
+      <c r="I63" s="490"/>
+      <c r="J63" s="490"/>
+      <c r="K63" s="490"/>
+      <c r="L63" s="490"/>
       <c r="M63" s="58"/>
     </row>
     <row r="64" spans="3:13" ht="12" customHeight="1">
@@ -25138,104 +25118,104 @@
     </row>
     <row r="66" spans="3:12" ht="9" customHeight="1" thickBot="1"/>
     <row r="67" spans="3:12" ht="15" customHeight="1">
-      <c r="F67" s="491" t="s">
+      <c r="F67" s="489" t="s">
         <v>218</v>
       </c>
-      <c r="G67" s="491"/>
-      <c r="H67" s="491"/>
-      <c r="I67" s="491"/>
-      <c r="J67" s="491"/>
+      <c r="G67" s="489"/>
+      <c r="H67" s="489"/>
+      <c r="I67" s="489"/>
+      <c r="J67" s="489"/>
     </row>
     <row r="68" spans="3:12" ht="13.5" customHeight="1">
       <c r="F68" s="209"/>
-      <c r="G68" s="492" t="s">
+      <c r="G68" s="485" t="s">
         <v>176</v>
       </c>
-      <c r="H68" s="492"/>
-      <c r="I68" s="493" t="s">
+      <c r="H68" s="485"/>
+      <c r="I68" s="486" t="s">
         <v>177</v>
       </c>
-      <c r="J68" s="493"/>
+      <c r="J68" s="486"/>
     </row>
     <row r="69" spans="3:12" ht="13.5" customHeight="1">
       <c r="F69" s="212" t="s">
         <v>178</v>
       </c>
-      <c r="G69" s="494">
-        <v>0</v>
-      </c>
-      <c r="H69" s="494"/>
-      <c r="I69" s="495" t="e">
+      <c r="G69" s="479">
+        <v>0</v>
+      </c>
+      <c r="H69" s="479"/>
+      <c r="I69" s="480" t="e">
         <f>'1°Q - Positivo'!D145</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J69" s="495"/>
+      <c r="J69" s="480"/>
     </row>
     <row r="70" spans="3:12" ht="13.5" customHeight="1">
       <c r="F70" s="215" t="s">
         <v>179</v>
       </c>
-      <c r="G70" s="496" t="e">
+      <c r="G70" s="481" t="e">
         <f>'1°Q - Positivo'!C146</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H70" s="496"/>
-      <c r="I70" s="497" t="e">
+      <c r="H70" s="481"/>
+      <c r="I70" s="482" t="e">
         <f>'1°Q - Positivo'!D146</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J70" s="497"/>
+      <c r="J70" s="482"/>
     </row>
     <row r="71" spans="3:12" ht="7.5" customHeight="1"/>
     <row r="72" spans="3:12" ht="15" customHeight="1">
-      <c r="F72" s="491" t="s">
+      <c r="F72" s="489" t="s">
         <v>219</v>
       </c>
-      <c r="G72" s="491"/>
-      <c r="H72" s="491"/>
-      <c r="I72" s="491"/>
-      <c r="J72" s="491"/>
+      <c r="G72" s="489"/>
+      <c r="H72" s="489"/>
+      <c r="I72" s="489"/>
+      <c r="J72" s="489"/>
     </row>
     <row r="73" spans="3:12" ht="13.5" customHeight="1">
       <c r="F73" s="209"/>
-      <c r="G73" s="492" t="s">
+      <c r="G73" s="485" t="s">
         <v>182</v>
       </c>
-      <c r="H73" s="492"/>
-      <c r="I73" s="493" t="s">
+      <c r="H73" s="485"/>
+      <c r="I73" s="486" t="s">
         <v>183</v>
       </c>
-      <c r="J73" s="493"/>
+      <c r="J73" s="486"/>
     </row>
     <row r="74" spans="3:12" ht="13.5" customHeight="1">
       <c r="F74" s="212" t="s">
         <v>178</v>
       </c>
-      <c r="G74" s="494">
+      <c r="G74" s="479">
         <f>'1°Q - Positivo'!C151</f>
         <v>0</v>
       </c>
-      <c r="H74" s="494"/>
-      <c r="I74" s="495" t="e">
+      <c r="H74" s="479"/>
+      <c r="I74" s="480" t="e">
         <f>'1°Q - Positivo'!D151</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J74" s="495"/>
+      <c r="J74" s="480"/>
     </row>
     <row r="75" spans="3:12" ht="13.5" customHeight="1">
       <c r="F75" s="215" t="s">
         <v>179</v>
       </c>
-      <c r="G75" s="496" t="e">
+      <c r="G75" s="481" t="e">
         <f>'1°Q - Positivo'!C152</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H75" s="496"/>
-      <c r="I75" s="497" t="e">
+      <c r="H75" s="481"/>
+      <c r="I75" s="482" t="e">
         <f>'1°Q - Positivo'!D152</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J75" s="497"/>
+      <c r="J75" s="482"/>
     </row>
     <row r="76" spans="3:12" ht="12" customHeight="1">
       <c r="G76" s="313"/>
@@ -25267,10 +25247,10 @@
         <v>157</v>
       </c>
       <c r="J79" s="227"/>
-      <c r="K79" s="498" t="s">
+      <c r="K79" s="488" t="s">
         <v>165</v>
       </c>
-      <c r="L79" s="499" t="s">
+      <c r="L79" s="487" t="s">
         <v>185</v>
       </c>
     </row>
@@ -25294,8 +25274,8 @@
         <v>186</v>
       </c>
       <c r="J80" s="231"/>
-      <c r="K80" s="498"/>
-      <c r="L80" s="499"/>
+      <c r="K80" s="488"/>
+      <c r="L80" s="487"/>
     </row>
     <row r="81" spans="3:12" ht="13.5" customHeight="1">
       <c r="D81" s="232">
@@ -25519,105 +25499,105 @@
     </row>
     <row r="89" spans="3:12" ht="12" customHeight="1"/>
     <row r="90" spans="3:12" ht="15" customHeight="1">
-      <c r="F90" s="500" t="s">
+      <c r="F90" s="484" t="s">
         <v>218</v>
       </c>
-      <c r="G90" s="500"/>
-      <c r="H90" s="500"/>
-      <c r="I90" s="500"/>
-      <c r="J90" s="500"/>
+      <c r="G90" s="484"/>
+      <c r="H90" s="484"/>
+      <c r="I90" s="484"/>
+      <c r="J90" s="484"/>
     </row>
     <row r="91" spans="3:12" ht="15" customHeight="1">
       <c r="F91" s="209"/>
-      <c r="G91" s="492" t="s">
+      <c r="G91" s="485" t="s">
         <v>176</v>
       </c>
-      <c r="H91" s="492"/>
-      <c r="I91" s="493" t="s">
+      <c r="H91" s="485"/>
+      <c r="I91" s="486" t="s">
         <v>177</v>
       </c>
-      <c r="J91" s="493"/>
+      <c r="J91" s="486"/>
     </row>
     <row r="92" spans="3:12" ht="15" customHeight="1">
       <c r="F92" s="212" t="s">
         <v>178</v>
       </c>
-      <c r="G92" s="494">
+      <c r="G92" s="479">
         <f>'3°Q - Negativo'!C145</f>
         <v>0</v>
       </c>
-      <c r="H92" s="494"/>
-      <c r="I92" s="495" t="e">
+      <c r="H92" s="479"/>
+      <c r="I92" s="480" t="e">
         <f>'3°Q - Negativo'!D145</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J92" s="495"/>
+      <c r="J92" s="480"/>
     </row>
     <row r="93" spans="3:12" ht="15" customHeight="1">
       <c r="F93" s="215" t="s">
         <v>179</v>
       </c>
-      <c r="G93" s="496" t="e">
+      <c r="G93" s="481" t="e">
         <f>'3°Q - Negativo'!C146</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H93" s="496"/>
-      <c r="I93" s="497" t="e">
+      <c r="H93" s="481"/>
+      <c r="I93" s="482" t="e">
         <f>'3°Q - Negativo'!D146</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J93" s="497"/>
+      <c r="J93" s="482"/>
     </row>
     <row r="94" spans="3:12" ht="15" customHeight="1"/>
     <row r="95" spans="3:12" ht="15" customHeight="1">
-      <c r="F95" s="500" t="s">
+      <c r="F95" s="484" t="s">
         <v>219</v>
       </c>
-      <c r="G95" s="500"/>
-      <c r="H95" s="500"/>
-      <c r="I95" s="500"/>
-      <c r="J95" s="500"/>
+      <c r="G95" s="484"/>
+      <c r="H95" s="484"/>
+      <c r="I95" s="484"/>
+      <c r="J95" s="484"/>
     </row>
     <row r="96" spans="3:12" ht="15" customHeight="1">
       <c r="F96" s="209"/>
-      <c r="G96" s="492" t="s">
+      <c r="G96" s="485" t="s">
         <v>182</v>
       </c>
-      <c r="H96" s="492"/>
-      <c r="I96" s="493" t="s">
+      <c r="H96" s="485"/>
+      <c r="I96" s="486" t="s">
         <v>183</v>
       </c>
-      <c r="J96" s="493"/>
+      <c r="J96" s="486"/>
     </row>
     <row r="97" spans="3:12" ht="15" customHeight="1">
       <c r="F97" s="212" t="s">
         <v>178</v>
       </c>
-      <c r="G97" s="494">
+      <c r="G97" s="479">
         <f>'3°Q - Negativo'!C151</f>
         <v>0</v>
       </c>
-      <c r="H97" s="494"/>
-      <c r="I97" s="495" t="e">
+      <c r="H97" s="479"/>
+      <c r="I97" s="480" t="e">
         <f>'3°Q - Negativo'!D151</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J97" s="495"/>
+      <c r="J97" s="480"/>
     </row>
     <row r="98" spans="3:12" ht="15" customHeight="1">
       <c r="F98" s="215" t="s">
         <v>179</v>
       </c>
-      <c r="G98" s="496" t="e">
+      <c r="G98" s="481" t="e">
         <f>'3°Q - Negativo'!C152</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H98" s="496"/>
-      <c r="I98" s="497" t="e">
+      <c r="H98" s="481"/>
+      <c r="I98" s="482" t="e">
         <f>'3°Q - Negativo'!D152</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J98" s="497"/>
+      <c r="J98" s="482"/>
     </row>
     <row r="99" spans="3:12" ht="12" customHeight="1">
       <c r="G99" s="313"/>
@@ -25649,10 +25629,10 @@
         <v>157</v>
       </c>
       <c r="J102" s="227"/>
-      <c r="K102" s="502" t="s">
+      <c r="K102" s="483" t="s">
         <v>165</v>
       </c>
-      <c r="L102" s="501" t="s">
+      <c r="L102" s="478" t="s">
         <v>185</v>
       </c>
     </row>
@@ -25676,8 +25656,8 @@
         <v>186</v>
       </c>
       <c r="J103" s="231"/>
-      <c r="K103" s="502"/>
-      <c r="L103" s="501"/>
+      <c r="K103" s="483"/>
+      <c r="L103" s="478"/>
     </row>
     <row r="104" spans="3:12" ht="15" customHeight="1">
       <c r="D104" s="232">
@@ -25686,23 +25666,23 @@
       </c>
       <c r="E104" s="233" t="e">
         <f>'3°Q - Negativo'!C157</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F104" s="233" t="e">
         <f>'3°Q - Negativo'!D157</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G104" s="233" t="e">
         <f>'3°Q - Negativo'!E157</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H104" s="233" t="e">
         <f>'3°Q - Negativo'!F157</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I104" s="234" t="e">
         <f>'3°Q - Negativo'!G157</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J104" s="235"/>
       <c r="K104" s="236">
@@ -25711,7 +25691,7 @@
       </c>
       <c r="L104" s="237" t="e">
         <f>'3°Q - Negativo'!J157</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="105" spans="3:12" ht="15" customHeight="1">
@@ -25733,11 +25713,11 @@
       </c>
       <c r="H105" s="239" t="e">
         <f>'3°Q - Negativo'!F158</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I105" s="240" t="e">
         <f>'3°Q - Negativo'!G158</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J105" s="235"/>
       <c r="K105" s="236">
@@ -25746,7 +25726,7 @@
       </c>
       <c r="L105" s="237" t="e">
         <f>'3°Q - Negativo'!J158</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="106" spans="3:12" ht="15" customHeight="1">
@@ -25768,11 +25748,11 @@
       </c>
       <c r="H106" s="239" t="e">
         <f>'3°Q - Negativo'!F159</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I106" s="240" t="e">
         <f>'3°Q - Negativo'!G159</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J106" s="235"/>
       <c r="K106" s="236">
@@ -25781,7 +25761,7 @@
       </c>
       <c r="L106" s="237" t="e">
         <f>'3°Q - Negativo'!J159</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="107" spans="3:12" ht="15" customHeight="1">
@@ -25803,11 +25783,11 @@
       </c>
       <c r="H107" s="239" t="e">
         <f>'3°Q - Negativo'!F160</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I107" s="240" t="e">
         <f>'3°Q - Negativo'!G160</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J107" s="235"/>
       <c r="K107" s="236">
@@ -25816,7 +25796,7 @@
       </c>
       <c r="L107" s="237" t="e">
         <f>'3°Q - Negativo'!J160</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="108" spans="3:12" ht="15" customHeight="1">
@@ -25838,11 +25818,11 @@
       </c>
       <c r="H108" s="239" t="e">
         <f>'3°Q - Negativo'!F161</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I108" s="240" t="e">
         <f>'3°Q - Negativo'!G161</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J108" s="235"/>
       <c r="K108" s="241">
@@ -25851,7 +25831,7 @@
       </c>
       <c r="L108" s="242" t="e">
         <f>'3°Q - Negativo'!J161</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="109" spans="3:12" ht="15" customHeight="1">
@@ -25859,25 +25839,25 @@
         <f>'3°Q - Negativo'!B162</f>
         <v>-1000</v>
       </c>
-      <c r="E109" s="243">
+      <c r="E109" s="243" t="e">
         <f>'3°Q - Negativo'!C162</f>
-        <v>492.70773034612205</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F109" s="243" t="e">
         <f>'3°Q - Negativo'!D162</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G109" s="243" t="e">
         <f>'3°Q - Negativo'!E162</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H109" s="243" t="e">
         <f>'3°Q - Negativo'!F162</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I109" s="244" t="e">
         <f>'3°Q - Negativo'!G162</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J109" s="235"/>
       <c r="K109" s="245"/>
@@ -25901,45 +25881,6 @@
     <row r="125" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="F90:J90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C63:L63"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="P17:R20"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="P22:R22"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E32:F32"/>
@@ -25954,6 +25895,45 @@
     <mergeCell ref="F15:M15"/>
     <mergeCell ref="F16:M16"/>
     <mergeCell ref="K27:M27"/>
+    <mergeCell ref="P17:R20"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="C63:L63"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="F90:J90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K102:K103"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
